--- a/exel/Sci.xlsx
+++ b/exel/Sci.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krits\intelli J\TEST\exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP-NPRU\IdeaProjects\DataTestDriven\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A30E57-F484-4ED1-852E-3E0CE19B132E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ชีต1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>คำนำหน้าภาษาไทย</t>
   </si>
@@ -175,19 +174,67 @@
     <t>0959042353</t>
   </si>
   <si>
-    <t>="0659987525"</t>
-  </si>
-  <si>
     <t>664259002@webmail.npru.ac.th</t>
   </si>
   <si>
     <t>Chillvilla</t>
+  </si>
+  <si>
+    <t>tc103</t>
+  </si>
+  <si>
+    <t>นาง</t>
+  </si>
+  <si>
+    <t>หฤทัย</t>
+  </si>
+  <si>
+    <t>หมายมั่น</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Haruethai</t>
+  </si>
+  <si>
+    <t>Mhaimun</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>maimum444</t>
+  </si>
+  <si>
+    <t>0659987525</t>
+  </si>
+  <si>
+    <t>0659987524</t>
+  </si>
+  <si>
+    <t>123466880</t>
+  </si>
+  <si>
+    <t>maimhun@gmail.com</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>73001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -236,12 +283,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -457,19 +505,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K3:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="18.90625" customWidth="1"/>
+    <col min="1" max="20" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -575,10 +623,10 @@
         <v>50</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>23</v>
@@ -634,7 +682,7 @@
         <v>38</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>39</v>
@@ -659,30 +707,71 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{3D714761-C3B5-4E30-A0DB-92B92FE14CEC}"/>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="N4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exel/Sci.xlsx
+++ b/exel/Sci.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP-NPRU\IdeaProjects\DataTestDriven\exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\DataTestDriven\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="575">
   <si>
     <t>คำนำหน้าภาษาไทย</t>
   </si>
@@ -132,9 +132,6 @@
     <t>2005</t>
   </si>
   <si>
-    <t>123466879</t>
-  </si>
-  <si>
     <t>somying1234</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>09</t>
   </si>
   <si>
-    <t>1749900994967</t>
-  </si>
-  <si>
     <t>K33332222</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>0659987524</t>
   </si>
   <si>
-    <t>123466880</t>
-  </si>
-  <si>
     <t>maimhun@gmail.com</t>
   </si>
   <si>
@@ -229,13 +220,1537 @@
   </si>
   <si>
     <t>73001</t>
+  </si>
+  <si>
+    <t>สมเกียรติ</t>
+  </si>
+  <si>
+    <t>ทัศนสุทธิ</t>
+  </si>
+  <si>
+    <t>วิกิจ</t>
+  </si>
+  <si>
+    <t>ดิสกะประกาย</t>
+  </si>
+  <si>
+    <t>ZYL!1HGq</t>
+  </si>
+  <si>
+    <t>+66 (0) 5212 7954</t>
+  </si>
+  <si>
+    <t>chukrii96@brisath.co.th</t>
+  </si>
+  <si>
+    <t>978 ถนนเนื่องนนท์ ตำบลบ้านปากพลี จังหวัดลพบุรี 24380</t>
+  </si>
+  <si>
+    <t>เชียงใหม่</t>
+  </si>
+  <si>
+    <t>บางปู</t>
+  </si>
+  <si>
+    <t>57360</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>เขมจิรา</t>
+  </si>
+  <si>
+    <t>ทับทิมไทย</t>
+  </si>
+  <si>
+    <t>กุลปรียา</t>
+  </si>
+  <si>
+    <t>นาคะนคร</t>
+  </si>
+  <si>
+    <t>G&amp;HA7Fns</t>
+  </si>
+  <si>
+    <t>+663 704 1947</t>
+  </si>
+  <si>
+    <t>thuupawiorcchnphaasukh@chmrmthngsiiaiphl.in.th</t>
+  </si>
+  <si>
+    <t>745/34 ถ.เธียรายัน ตำบลห้วยบางไผ่ อำเภอเนินสง่า ระนอง 28660</t>
+  </si>
+  <si>
+    <t>ขอนแก่น</t>
+  </si>
+  <si>
+    <t>ศรีราชา</t>
+  </si>
+  <si>
+    <t>บางรัก</t>
+  </si>
+  <si>
+    <t>28400</t>
+  </si>
+  <si>
+    <t>อัญชัญ</t>
+  </si>
+  <si>
+    <t>ถนอมกุลบุตร</t>
+  </si>
+  <si>
+    <t>พลภูมิ</t>
+  </si>
+  <si>
+    <t>พรสีมา</t>
+  </si>
+  <si>
+    <t>$LV56OdM</t>
+  </si>
+  <si>
+    <t>+66 (0) 3640 5779</t>
+  </si>
+  <si>
+    <t>thnadraksaanirandr@protonmail.com</t>
+  </si>
+  <si>
+    <t>29/3 ถนนทองเนื้อดี ต.บ้านหนองแสง อ.บำเหน็จณรงค์ ลพบุรี 30150</t>
+  </si>
+  <si>
+    <t>ปากเกร็ด</t>
+  </si>
+  <si>
+    <t>ท่าข้าม</t>
+  </si>
+  <si>
+    <t>88460</t>
+  </si>
+  <si>
+    <t>จำรัส</t>
+  </si>
+  <si>
+    <t>ถนัดอาวุธ</t>
+  </si>
+  <si>
+    <t>สุรธัช</t>
+  </si>
+  <si>
+    <t>ดาบเงิน</t>
+  </si>
+  <si>
+    <t>u$6AJljO</t>
+  </si>
+  <si>
+    <t>+66 5653 8823</t>
+  </si>
+  <si>
+    <t>ichamnaaywaad@haanghunswncchamkad.co.th</t>
+  </si>
+  <si>
+    <t>37 ถนนบินดี ต.บางแคกลาง อ.เมือง จ.อุบลราชธานี 27800</t>
+  </si>
+  <si>
+    <t>ภูเก็ต</t>
+  </si>
+  <si>
+    <t>บางนา</t>
+  </si>
+  <si>
+    <t>29870</t>
+  </si>
+  <si>
+    <t>แปลง</t>
+  </si>
+  <si>
+    <t>นะวะมันดร</t>
+  </si>
+  <si>
+    <t>ณภัทร</t>
+  </si>
+  <si>
+    <t>เนื้อนุ่ม</t>
+  </si>
+  <si>
+    <t>&amp;w(p1F_k</t>
+  </si>
+  <si>
+    <t>0 902 096 862</t>
+  </si>
+  <si>
+    <t>wkumaarbuy@haanghunswnsaamay.co.th</t>
+  </si>
+  <si>
+    <t>01/6 ถนนถาวรายุศม์ พิษณุโลก 61870</t>
+  </si>
+  <si>
+    <t>กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>แม่ริม</t>
+  </si>
+  <si>
+    <t>ดอยสะเก็ด</t>
+  </si>
+  <si>
+    <t>37970</t>
+  </si>
+  <si>
+    <t>ทินพร</t>
+  </si>
+  <si>
+    <t>ธรรมสถิตไพศาล</t>
+  </si>
+  <si>
+    <t>นรีรัตน์</t>
+  </si>
+  <si>
+    <t>นวลเพ็ง</t>
+  </si>
+  <si>
+    <t>@8qAZUTq</t>
+  </si>
+  <si>
+    <t>+66 3005 1346</t>
+  </si>
+  <si>
+    <t>naamkhamthitiyaaphr@protonmail.com</t>
+  </si>
+  <si>
+    <t>84 ถ.ติณรัตน์ วังทองหลาง จ.พะเยา 62570</t>
+  </si>
+  <si>
+    <t>47480</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>กษิดิฐ</t>
+  </si>
+  <si>
+    <t>ตวงทอง</t>
+  </si>
+  <si>
+    <t>ยูซุฟ</t>
+  </si>
+  <si>
+    <t>&amp;0KT!Hgt</t>
+  </si>
+  <si>
+    <t>0820498816</t>
+  </si>
+  <si>
+    <t>udmlaksnetmiyaedch@haanghunswnsaamay.com</t>
+  </si>
+  <si>
+    <t>16 ถ.นุตตาร ปราจีนบุรี 21570</t>
+  </si>
+  <si>
+    <t>หาดใหญ่</t>
+  </si>
+  <si>
+    <t>หนองจอก</t>
+  </si>
+  <si>
+    <t>61820</t>
+  </si>
+  <si>
+    <t>ศศิรินทร์</t>
+  </si>
+  <si>
+    <t>ถาวรรัตน</t>
+  </si>
+  <si>
+    <t>จักรชัย</t>
+  </si>
+  <si>
+    <t>คณานุรักษ์</t>
+  </si>
+  <si>
+    <t>2B)5$Eux</t>
+  </si>
+  <si>
+    <t>+66 2722 9625</t>
+  </si>
+  <si>
+    <t>chuusaarnitiyaa@kon.in.th</t>
+  </si>
+  <si>
+    <t>6/4 ถ.ถะเกิงชศ อำเภอศรีสงคราม จันทบุรี 32830</t>
+  </si>
+  <si>
+    <t>นครราชสีมา</t>
+  </si>
+  <si>
+    <t>88970</t>
+  </si>
+  <si>
+    <t>ธีรลักษณ์</t>
+  </si>
+  <si>
+    <t>เณรานุสนธิ์</t>
+  </si>
+  <si>
+    <t>พิมพกานต์</t>
+  </si>
+  <si>
+    <t>สาระพันธ์</t>
+  </si>
+  <si>
+    <t>^%9WgRic</t>
+  </si>
+  <si>
+    <t>0 629 744 507</t>
+  </si>
+  <si>
+    <t>tinratndwngsmr@hcchkaennducchpm.com</t>
+  </si>
+  <si>
+    <t>17 หมู่ 85 ถนนนวลฉวี อ.ปากคาด จ.ราชบุรี 89060</t>
+  </si>
+  <si>
+    <t>12860</t>
+  </si>
+  <si>
+    <t>ดิลก</t>
+  </si>
+  <si>
+    <t>ดาตู</t>
+  </si>
+  <si>
+    <t>เจษฏาภรณ์</t>
+  </si>
+  <si>
+    <t>นพตระกูล</t>
+  </si>
+  <si>
+    <t>p)I4#STx</t>
+  </si>
+  <si>
+    <t>+66 (0) 7571 6367</t>
+  </si>
+  <si>
+    <t>eliskingecchsdaakr@brisath.co.th</t>
+  </si>
+  <si>
+    <t>8 ถนนถนัดเดินข่าว ต.นาวง อ.ศรีสงคราม นครนายก 93080</t>
+  </si>
+  <si>
+    <t>31300</t>
+  </si>
+  <si>
+    <t>ทิพย์วารี</t>
+  </si>
+  <si>
+    <t>ทรงโกมล</t>
+  </si>
+  <si>
+    <t>มูฮำมัด</t>
+  </si>
+  <si>
+    <t>บัวเผื่อน</t>
+  </si>
+  <si>
+    <t>8@2j@3Hh</t>
+  </si>
+  <si>
+    <t>022097464</t>
+  </si>
+  <si>
+    <t>dwngthabthimkrtemth@brisath.co.th</t>
+  </si>
+  <si>
+    <t>788 ถนนตระกูลบุญ วัดบัวบานใหญ่ บ้านแพง ตาก 50920</t>
+  </si>
+  <si>
+    <t>30460</t>
+  </si>
+  <si>
+    <t>อัญชิษฐา</t>
+  </si>
+  <si>
+    <t>พงศ์ฉบับนภา</t>
+  </si>
+  <si>
+    <t>จันทา</t>
+  </si>
+  <si>
+    <t>)82NntTV</t>
+  </si>
+  <si>
+    <t>+66 841 465 953</t>
+  </si>
+  <si>
+    <t>jthnmmnusy@outlook.com</t>
+  </si>
+  <si>
+    <t>996/6 ถ.ธนรักษ์ ท่าเรือ จ.ชลบุรี 81590</t>
+  </si>
+  <si>
+    <t>76770</t>
+  </si>
+  <si>
+    <t>ศดิศ</t>
+  </si>
+  <si>
+    <t>ชำนาญวาด</t>
+  </si>
+  <si>
+    <t>สิทธิชัย</t>
+  </si>
+  <si>
+    <t>ดาบเพ็ชร์</t>
+  </si>
+  <si>
+    <t>*k$3*2Wo</t>
+  </si>
+  <si>
+    <t>+66 2642 4589</t>
+  </si>
+  <si>
+    <t>cchuthaaphrndiskaprakaay@thiikhaaeladaawraam.com</t>
+  </si>
+  <si>
+    <t>03/66 ถ.ยางสวย ตำบลเกาะหวายเหนือ อำเภอวังทองหลาง สกลนคร 93970</t>
+  </si>
+  <si>
+    <t>ชลบุรี</t>
+  </si>
+  <si>
+    <t>94480</t>
+  </si>
+  <si>
+    <t>วาร์มูฮำหมัด</t>
+  </si>
+  <si>
+    <t>นาควงษ์</t>
+  </si>
+  <si>
+    <t>บุญญามี</t>
+  </si>
+  <si>
+    <t>เขียวอ่อน</t>
+  </si>
+  <si>
+    <t>%Bp50Vkn</t>
+  </si>
+  <si>
+    <t>03 482 8609</t>
+  </si>
+  <si>
+    <t>cchrryphr60@hcchkdaatuu.com</t>
+  </si>
+  <si>
+    <t>51/94 ถนนบุญญาไลย์ ต.เขาพระนอน อ.คลองใหญ่ จ.บึงกาฬ</t>
+  </si>
+  <si>
+    <t>68340</t>
+  </si>
+  <si>
+    <t>ชัชนันท์</t>
+  </si>
+  <si>
+    <t>ดิศดใน</t>
+  </si>
+  <si>
+    <t>พัชรีนิษฐ์</t>
+  </si>
+  <si>
+    <t>ทศโยธิน</t>
+  </si>
+  <si>
+    <t>*0beLbky</t>
+  </si>
+  <si>
+    <t>thrrmniymphimphphichyaa@kon.in.th</t>
+  </si>
+  <si>
+    <t>6/2 ต.บางตลาดใต้ อ.บ่อไร่ ภูเก็ต 29820</t>
+  </si>
+  <si>
+    <t>24740</t>
+  </si>
+  <si>
+    <t>หรรษธร</t>
+  </si>
+  <si>
+    <t>เขียวขุ้ย</t>
+  </si>
+  <si>
+    <t>อาภัศรา</t>
+  </si>
+  <si>
+    <t>#X2lE$*m</t>
+  </si>
+  <si>
+    <t>+66 (0) 845 553 284</t>
+  </si>
+  <si>
+    <t>maariiniiphrsiimaa@chmrmthraphysaar.com</t>
+  </si>
+  <si>
+    <t>1/0 ถ.บุญญาภิรมย์ ต.นาเชือกใต้ อ.หนองบัวแดง จันทบุรี</t>
+  </si>
+  <si>
+    <t>22830</t>
+  </si>
+  <si>
+    <t>มนรัตน์</t>
+  </si>
+  <si>
+    <t>ตราชู</t>
+  </si>
+  <si>
+    <t>พิมพ์สุตา</t>
+  </si>
+  <si>
+    <t>ธรรมเมธา</t>
+  </si>
+  <si>
+    <t>*_$6EkhL</t>
+  </si>
+  <si>
+    <t>0 4888 2456</t>
+  </si>
+  <si>
+    <t>rmitaatangkulngaam@bcchkthayesthiiyrethrdding.in.th</t>
+  </si>
+  <si>
+    <t>220/75 ถนนธรรมทินนา ต.บางกุ้งเล็ก อ.ภาษีเจริญ ชัยนาท 86180</t>
+  </si>
+  <si>
+    <t>90570</t>
+  </si>
+  <si>
+    <t>เวียงจันทึก</t>
+  </si>
+  <si>
+    <t>นาตยา</t>
+  </si>
+  <si>
+    <t>ทองแท้</t>
+  </si>
+  <si>
+    <t>(H*1TZ1n</t>
+  </si>
+  <si>
+    <t>05 635 7935</t>
+  </si>
+  <si>
+    <t>wuthidwngosn@haanghunswnsaamay.co.th</t>
+  </si>
+  <si>
+    <t>653/5 ถนนถนัดภาษา ตำบลในเตาใต้ อำเภอคลองใหญ่ ปัตตานี 12860</t>
+  </si>
+  <si>
+    <t>64480</t>
+  </si>
+  <si>
+    <t>ภควัฒน์</t>
+  </si>
+  <si>
+    <t>บุญส่ง</t>
+  </si>
+  <si>
+    <t>ณิชาภัทร</t>
+  </si>
+  <si>
+    <t>พรรษาสกุล</t>
+  </si>
+  <si>
+    <t>m!&amp;3SNJd</t>
+  </si>
+  <si>
+    <t>+66 (0) 3124 9181</t>
+  </si>
+  <si>
+    <t>eliskingnichnanth@brisath.co.th</t>
+  </si>
+  <si>
+    <t>76/4 ถนนตวงทอง อำเภอซับใหญ่ อ่างทอง 50150</t>
+  </si>
+  <si>
+    <t>35810</t>
+  </si>
+  <si>
+    <t>โสภา</t>
+  </si>
+  <si>
+    <t>ดวงทับทิม</t>
+  </si>
+  <si>
+    <t>อธิตยา</t>
+  </si>
+  <si>
+    <t>ถนัดหัตถกรรม</t>
+  </si>
+  <si>
+    <t>!@Aa4dZl</t>
+  </si>
+  <si>
+    <t>025 880429</t>
+  </si>
+  <si>
+    <t>piynaadthrngokml@hotmail.com</t>
+  </si>
+  <si>
+    <t>29/23 ถนนวะคีมัน นาแก จ.นครปฐม 91380</t>
+  </si>
+  <si>
+    <t>23970</t>
+  </si>
+  <si>
+    <t>กะดิรัตน์</t>
+  </si>
+  <si>
+    <t>ศิริเกศ</t>
+  </si>
+  <si>
+    <t>วุฑฒยากร</t>
+  </si>
+  <si>
+    <t>C%4)pBIf</t>
+  </si>
+  <si>
+    <t>+66 (0) 3315 5981</t>
+  </si>
+  <si>
+    <t>khnaanuraksraanii@chmrmsantawngs.co</t>
+  </si>
+  <si>
+    <t>21 หมู่ 01 ถนนสุวรรณหงษ์ ต.หนองแสง อ.เทิง สุโขทัย</t>
+  </si>
+  <si>
+    <t>90920</t>
+  </si>
+  <si>
+    <t>เพียงกมล</t>
+  </si>
+  <si>
+    <t>ขำเอนก</t>
+  </si>
+  <si>
+    <t>เถลิงยศ</t>
+  </si>
+  <si>
+    <t>ตั้งกุลงาม</t>
+  </si>
+  <si>
+    <t>@xr27+Ox</t>
+  </si>
+  <si>
+    <t>0644076629</t>
+  </si>
+  <si>
+    <t>naathphuuwphathnbawephuuen@ymail.com</t>
+  </si>
+  <si>
+    <t>8/3 ถนนถนิมมาศ ต.บ้านโนนศิลาเล็ก อ.นาหว้า จ.อุบลราชธานี 29360</t>
+  </si>
+  <si>
+    <t>98780</t>
+  </si>
+  <si>
+    <t>นวรรษนันท์</t>
+  </si>
+  <si>
+    <t>นำธวัช</t>
+  </si>
+  <si>
+    <t>พันธุ์เทพ</t>
+  </si>
+  <si>
+    <t>นามเสวตร</t>
+  </si>
+  <si>
+    <t>b)7Lym6t</t>
+  </si>
+  <si>
+    <t>+66 2982 2841</t>
+  </si>
+  <si>
+    <t>sraaycchitthiraysaalii@brisath.in.th</t>
+  </si>
+  <si>
+    <t>05 ถนนเตมิยะเดช ต.กะบกเตี้ย อ.วังทองหลาง สมุทรปราการ 69510</t>
+  </si>
+  <si>
+    <t>46170</t>
+  </si>
+  <si>
+    <t>ปิ่นบุญญา</t>
+  </si>
+  <si>
+    <t>ถนัดกลึง</t>
+  </si>
+  <si>
+    <t>สายสุรีย์</t>
+  </si>
+  <si>
+    <t>ศรีสัตย์</t>
+  </si>
+  <si>
+    <t>*+X2Z3Vp</t>
+  </si>
+  <si>
+    <t>03 096 8550</t>
+  </si>
+  <si>
+    <t>ssiyaahmphikul@kon.in.th</t>
+  </si>
+  <si>
+    <t>522/35 ถ.นวลฉวี อ.บางสะพานน้อย มุกดาหาร 26810</t>
+  </si>
+  <si>
+    <t>40550</t>
+  </si>
+  <si>
+    <t>รัฐพงษ์</t>
+  </si>
+  <si>
+    <t>หนุนสุข</t>
+  </si>
+  <si>
+    <t>นารดา</t>
+  </si>
+  <si>
+    <t>เตชะกำพุ</t>
+  </si>
+  <si>
+    <t>+(r8rmZe</t>
+  </si>
+  <si>
+    <t>+66 7884 1738</t>
+  </si>
+  <si>
+    <t>thraphysaarladdaa@yahoo.com</t>
+  </si>
+  <si>
+    <t>65 หมู่ 6 ถ.ไตรบรรพ ต.ในเตา อ.ภูเขียว จ.นครพนม 85710</t>
+  </si>
+  <si>
+    <t>97750</t>
+  </si>
+  <si>
+    <t>วิถี</t>
+  </si>
+  <si>
+    <t>ฐิติณัฐฐา</t>
+  </si>
+  <si>
+    <t>A)H0ZymT</t>
+  </si>
+  <si>
+    <t>+66 5399 1895</t>
+  </si>
+  <si>
+    <t>pchaayaesng@gmail.com</t>
+  </si>
+  <si>
+    <t>78 หมู่ 31 ถนนไสยกิจ ตำบลเว่อ อำเภอนาหว้า บึงกาฬ 14230</t>
+  </si>
+  <si>
+    <t>46860</t>
+  </si>
+  <si>
+    <t>จินต์จุฑา</t>
+  </si>
+  <si>
+    <t>แจ้งสว่าง</t>
+  </si>
+  <si>
+    <t>อณาวิน</t>
+  </si>
+  <si>
+    <t>a!6gRAy6</t>
+  </si>
+  <si>
+    <t>nrphaythitiwuthi@brisath.co.th</t>
+  </si>
+  <si>
+    <t>7/8 ถนนทองสินธุ์ ตำบลบ่อบัวบาน อำเภอแม่ลาว ศรีสะเกษ 83780</t>
+  </si>
+  <si>
+    <t>23360</t>
+  </si>
+  <si>
+    <t>จักรพันธ์</t>
+  </si>
+  <si>
+    <t>ศรีเผด็จ</t>
+  </si>
+  <si>
+    <t>ทวีวัฒน์</t>
+  </si>
+  <si>
+    <t>_G2X3udq</t>
+  </si>
+  <si>
+    <t>+66 (0) 4619 4109</t>
+  </si>
+  <si>
+    <t>lthaawrratn@icloud.com</t>
+  </si>
+  <si>
+    <t>22 หมู่ 74 ถ.เขียวอ่อน ปากคม เวียงชัย ยะลา 61920</t>
+  </si>
+  <si>
+    <t>11700</t>
+  </si>
+  <si>
+    <t>ถุงเงิน</t>
+  </si>
+  <si>
+    <t>ธราวิทญ์</t>
+  </si>
+  <si>
+    <t>สงประเสริฐ</t>
+  </si>
+  <si>
+    <t>0C!0$Kdg</t>
+  </si>
+  <si>
+    <t>+662 133 4348</t>
+  </si>
+  <si>
+    <t>nilathatwalyaa@edchkhumechrwis.com</t>
+  </si>
+  <si>
+    <t>7/8 ถนนซาซุม อ.คอนสาร ขอนแก่น 92280</t>
+  </si>
+  <si>
+    <t>62600</t>
+  </si>
+  <si>
+    <t>ปุณณรัตน์</t>
+  </si>
+  <si>
+    <t>ติณรัตน์</t>
+  </si>
+  <si>
+    <t>นิติยา</t>
+  </si>
+  <si>
+    <t>ถาวรายุศม์</t>
+  </si>
+  <si>
+    <t>n$*S5Dog</t>
+  </si>
+  <si>
+    <t>+66 3383 0660</t>
+  </si>
+  <si>
+    <t>etalaphat@icloud.com</t>
+  </si>
+  <si>
+    <t>90 ถ.ตระกูลไม้เรียง อ.บ้านเขว้า จันทบุรี 57660</t>
+  </si>
+  <si>
+    <t>28580</t>
+  </si>
+  <si>
+    <t>ผดุงพล</t>
+  </si>
+  <si>
+    <t>วรินทธิ์ธร</t>
+  </si>
+  <si>
+    <t>ทองอยู่</t>
+  </si>
+  <si>
+    <t>X3!73SXu</t>
+  </si>
+  <si>
+    <t>+66 2206 8265</t>
+  </si>
+  <si>
+    <t>nnthkaaycchnthungengin@hotmail.com</t>
+  </si>
+  <si>
+    <t>17/23 ถ.นาคสุทิน อ.สะพานสูง ปราจีนบุรี 22630</t>
+  </si>
+  <si>
+    <t>49080</t>
+  </si>
+  <si>
+    <t>โพธิสัตย์</t>
+  </si>
+  <si>
+    <t>ซูไรดา</t>
+  </si>
+  <si>
+    <t>$2Dykmi7</t>
+  </si>
+  <si>
+    <t>aythikaasriiwngkh@gmail.com</t>
+  </si>
+  <si>
+    <t>426/60 ถ.นิลสุวรรณ์ ต.เขาปูน อ.แก้งคร้อ จ.สิงห์บุรี 36230</t>
+  </si>
+  <si>
+    <t>14920</t>
+  </si>
+  <si>
+    <t>มาสิตะ</t>
+  </si>
+  <si>
+    <t>วะคีมัน</t>
+  </si>
+  <si>
+    <t>ฮามีย๊ะ</t>
+  </si>
+  <si>
+    <t>J&amp;1sTbGp</t>
+  </si>
+  <si>
+    <t>0 801 294 176</t>
+  </si>
+  <si>
+    <t>ekstr59@hotmail.com</t>
+  </si>
+  <si>
+    <t>9 ถ.ธาราธร ต.บ้านพะโต๊ะ อ.ศรีวิไล จ.สิงห์บุรี 56980</t>
+  </si>
+  <si>
+    <t>16180</t>
+  </si>
+  <si>
+    <t>สุรวัช</t>
+  </si>
+  <si>
+    <t>ไชยภา</t>
+  </si>
+  <si>
+    <t>มาโนชญ์</t>
+  </si>
+  <si>
+    <t>ตะละภัฏ</t>
+  </si>
+  <si>
+    <t>8)2w*PVg</t>
+  </si>
+  <si>
+    <t>0 3008 1562</t>
+  </si>
+  <si>
+    <t>priyyaa88@nilesnaaaelanilwrrn.in.th</t>
+  </si>
+  <si>
+    <t>111 ถนนตันยา ตำบลนาวง อำเภอพรเจริญ เชียงใหม่ 56490</t>
+  </si>
+  <si>
+    <t>13900</t>
+  </si>
+  <si>
+    <t>ปิยนาฎ</t>
+  </si>
+  <si>
+    <t>ดาวอร่าม</t>
+  </si>
+  <si>
+    <t>z#4RFyVn</t>
+  </si>
+  <si>
+    <t>0 2849 2347</t>
+  </si>
+  <si>
+    <t>fephiiyyaa@icloud.com</t>
+  </si>
+  <si>
+    <t>2 ถ.ไม้แดง ตำบลเทพศิรินทร์ใหญ่ อำเภอปลาปาก สระแก้ว 84840</t>
+  </si>
+  <si>
+    <t>23250</t>
+  </si>
+  <si>
+    <t>ณัฐธิตา</t>
+  </si>
+  <si>
+    <t>นามขำ</t>
+  </si>
+  <si>
+    <t>ฟารินี</t>
+  </si>
+  <si>
+    <t>นฤทุกข์</t>
+  </si>
+  <si>
+    <t>%tN1kRv^</t>
+  </si>
+  <si>
+    <t>042992847</t>
+  </si>
+  <si>
+    <t>thnadraksaaphaaswuthi@protonmail.com</t>
+  </si>
+  <si>
+    <t>8/1 ถนนวาทา ปากพลี วังทองหลาง กรุงเทพฯ 79100</t>
+  </si>
+  <si>
+    <t>95610</t>
+  </si>
+  <si>
+    <t>โกมล</t>
+  </si>
+  <si>
+    <t>เยาวธนโชค</t>
+  </si>
+  <si>
+    <t>วีระวัฒน์</t>
+  </si>
+  <si>
+    <t>ประจันตะเสน</t>
+  </si>
+  <si>
+    <t>**4WAF#g</t>
+  </si>
+  <si>
+    <t>+665 150 7854</t>
+  </si>
+  <si>
+    <t>thinphr01@gmail.com</t>
+  </si>
+  <si>
+    <t>25 หมู่ 3 ถ.ไชยภา ยางตลาดเหนือ เวียงชัย สตูล 13440</t>
+  </si>
+  <si>
+    <t>41130</t>
+  </si>
+  <si>
+    <t>ณัฐวรินทร</t>
+  </si>
+  <si>
+    <t>นฤภัย</t>
+  </si>
+  <si>
+    <t>&amp;d5FtBrY</t>
+  </si>
+  <si>
+    <t>sorchaa74@brisath.go.th</t>
+  </si>
+  <si>
+    <t>47 หมู่ 02 ถ.ธรรมฤดี ต.ทุ่งต่อ อ.แก้งคร้อ ปัตตานี 90520</t>
+  </si>
+  <si>
+    <t>83250</t>
+  </si>
+  <si>
+    <t>ปิยบุตร</t>
+  </si>
+  <si>
+    <t>บุตราช</t>
+  </si>
+  <si>
+    <t>3W$6Dn3b</t>
+  </si>
+  <si>
+    <t>+66 662 387 345</t>
+  </si>
+  <si>
+    <t>thnphnaekwchlkhraam@gmail.com</t>
+  </si>
+  <si>
+    <t>62/2 ถนนแน่นดุจป้อม ต.ปังหวานใต้ อ.เฉลิมพระเกียรติ กาฬสินธุ์ 93550</t>
+  </si>
+  <si>
+    <t>47410</t>
+  </si>
+  <si>
+    <t>โสภณ</t>
+  </si>
+  <si>
+    <t>จักรีรัตน์</t>
+  </si>
+  <si>
+    <t>U%Ng3N2d</t>
+  </si>
+  <si>
+    <t>zdamrihchb@outlook.com</t>
+  </si>
+  <si>
+    <t>6/6 ถนนตราชู ตำบลเทพศิรินทร์ อำเภอบ้านแท่น ลำปาง 70200</t>
+  </si>
+  <si>
+    <t>27260</t>
+  </si>
+  <si>
+    <t>ธนรักษ์</t>
+  </si>
+  <si>
+    <t>มะลีวัลย์</t>
+  </si>
+  <si>
+    <t>h2(&amp;4zUm</t>
+  </si>
+  <si>
+    <t>lthaaraathr@protonmail.com</t>
+  </si>
+  <si>
+    <t>46/1 ถ.นาคะนคร ตำบลปากพลี อำเภอเขาสมิง จังหวัดระนอง 42790</t>
+  </si>
+  <si>
+    <t>79270</t>
+  </si>
+  <si>
+    <t>ศิรินันท์</t>
+  </si>
+  <si>
+    <t>นาถะเดชะ</t>
+  </si>
+  <si>
+    <t>F(^3RaPe</t>
+  </si>
+  <si>
+    <t>0 987 930 636</t>
+  </si>
+  <si>
+    <t>piyananth39@haanghunswnsaamay.go.th</t>
+  </si>
+  <si>
+    <t>030 ถ.ยาปะโลหิต ตำบลนาดี อำเภอคลองใหญ่ อำนาจเจริญ 84100</t>
+  </si>
+  <si>
+    <t>26320</t>
+  </si>
+  <si>
+    <t>ผลบุญ</t>
+  </si>
+  <si>
+    <t>ภูวรา</t>
+  </si>
+  <si>
+    <t>ทองสินธุ์</t>
+  </si>
+  <si>
+    <t>+)7W@m)U</t>
+  </si>
+  <si>
+    <t>+66 870 961 860</t>
+  </si>
+  <si>
+    <t>muuhamhmadimrnnaakhsuthin@haanghunswncchamkad.com</t>
+  </si>
+  <si>
+    <t>148/92 ถ.อุลหัสสา อำเภอปลาปาก กทม. 14720</t>
+  </si>
+  <si>
+    <t>37450</t>
+  </si>
+  <si>
+    <t>อุลัยพร</t>
+  </si>
+  <si>
+    <t>เพียยา</t>
+  </si>
+  <si>
+    <t>พรมอ่อน</t>
+  </si>
+  <si>
+    <t>u+96Dzd@</t>
+  </si>
+  <si>
+    <t>045 871002</t>
+  </si>
+  <si>
+    <t>wrinththithrphiiraephykul@brisath.com</t>
+  </si>
+  <si>
+    <t>22 หมู่ 71 ถนนนพคเชนทร์ อำเภอบ้านแพง บึงกาฬ 61130</t>
+  </si>
+  <si>
+    <t>58990</t>
+  </si>
+  <si>
+    <t>ธีรวัช</t>
+  </si>
+  <si>
+    <t>ตันเผ่า</t>
+  </si>
+  <si>
+    <t>สิริกานต์</t>
+  </si>
+  <si>
+    <t>*3Z)GSji</t>
+  </si>
+  <si>
+    <t>+66 962 625 385</t>
+  </si>
+  <si>
+    <t>phkaathiphynamthwach@kon.in.th</t>
+  </si>
+  <si>
+    <t>86/83 ถ.ศรีตะวัน ต.หนองแสง อ.หนองบัวระเหว ราชบุรี</t>
+  </si>
+  <si>
+    <t>57800</t>
+  </si>
+  <si>
+    <t>ศิริญา</t>
+  </si>
+  <si>
+    <t>สุพัตร</t>
+  </si>
+  <si>
+    <t>นรวิทย์โชติกุล</t>
+  </si>
+  <si>
+    <t>#3N13tsl</t>
+  </si>
+  <si>
+    <t>0 633 212 268</t>
+  </si>
+  <si>
+    <t>suthaawii24@gmail.com</t>
+  </si>
+  <si>
+    <t>78/2 ถนนภูภักดี ปังหวานใต้ เฉลิมพระเกียรติ ปัตตานี 39960</t>
+  </si>
+  <si>
+    <t>89410</t>
+  </si>
+  <si>
+    <t>ณัฐญาดา</t>
+  </si>
+  <si>
+    <t>ถนัดรบ</t>
+  </si>
+  <si>
+    <t>ปัตถพงษ์</t>
+  </si>
+  <si>
+    <t>ศรีอุ่น</t>
+  </si>
+  <si>
+    <t>I^G3fKbl</t>
+  </si>
+  <si>
+    <t>033 697499</t>
+  </si>
+  <si>
+    <t>kitiyaathrnaenwphnich@gmail.com</t>
+  </si>
+  <si>
+    <t>206/4 ถ.ฉิมพาลี อ.พรเจริญ ชัยภูมิ 72240</t>
+  </si>
+  <si>
+    <t>27540</t>
+  </si>
+  <si>
+    <t>tc104</t>
+  </si>
+  <si>
+    <t>tc105</t>
+  </si>
+  <si>
+    <t>tc106</t>
+  </si>
+  <si>
+    <t>tc107</t>
+  </si>
+  <si>
+    <t>tc108</t>
+  </si>
+  <si>
+    <t>tc109</t>
+  </si>
+  <si>
+    <t>tc110</t>
+  </si>
+  <si>
+    <t>tc111</t>
+  </si>
+  <si>
+    <t>tc112</t>
+  </si>
+  <si>
+    <t>tc113</t>
+  </si>
+  <si>
+    <t>tc114</t>
+  </si>
+  <si>
+    <t>tc115</t>
+  </si>
+  <si>
+    <t>tc116</t>
+  </si>
+  <si>
+    <t>tc117</t>
+  </si>
+  <si>
+    <t>tc118</t>
+  </si>
+  <si>
+    <t>tc119</t>
+  </si>
+  <si>
+    <t>tc120</t>
+  </si>
+  <si>
+    <t>tc121</t>
+  </si>
+  <si>
+    <t>tc122</t>
+  </si>
+  <si>
+    <t>tc123</t>
+  </si>
+  <si>
+    <t>tc124</t>
+  </si>
+  <si>
+    <t>tc125</t>
+  </si>
+  <si>
+    <t>tc126</t>
+  </si>
+  <si>
+    <t>tc127</t>
+  </si>
+  <si>
+    <t>tc128</t>
+  </si>
+  <si>
+    <t>tc129</t>
+  </si>
+  <si>
+    <t>tc130</t>
+  </si>
+  <si>
+    <t>tc131</t>
+  </si>
+  <si>
+    <t>tc132</t>
+  </si>
+  <si>
+    <t>tc133</t>
+  </si>
+  <si>
+    <t>tc134</t>
+  </si>
+  <si>
+    <t>tc135</t>
+  </si>
+  <si>
+    <t>tc136</t>
+  </si>
+  <si>
+    <t>tc137</t>
+  </si>
+  <si>
+    <t>tc138</t>
+  </si>
+  <si>
+    <t>tc139</t>
+  </si>
+  <si>
+    <t>tc140</t>
+  </si>
+  <si>
+    <t>tc141</t>
+  </si>
+  <si>
+    <t>tc142</t>
+  </si>
+  <si>
+    <t>tc143</t>
+  </si>
+  <si>
+    <t>tc144</t>
+  </si>
+  <si>
+    <t>tc145</t>
+  </si>
+  <si>
+    <t>tc146</t>
+  </si>
+  <si>
+    <t>tc147</t>
+  </si>
+  <si>
+    <t>tc148</t>
+  </si>
+  <si>
+    <t>tc149</t>
+  </si>
+  <si>
+    <t>tc150</t>
+  </si>
+  <si>
+    <t>6 6120 56640 40 0</t>
+  </si>
+  <si>
+    <t>3 2614 73788 32 6</t>
+  </si>
+  <si>
+    <t>7 5007 41237 81 7</t>
+  </si>
+  <si>
+    <t>4 3501 17467 77 4</t>
+  </si>
+  <si>
+    <t>5 1408 63861 41 5</t>
+  </si>
+  <si>
+    <t>3 4902 00140 35 4</t>
+  </si>
+  <si>
+    <t>2 4217 80207 37 1</t>
+  </si>
+  <si>
+    <t>8 2112 69099 10 1</t>
+  </si>
+  <si>
+    <t>1 3414 14027 32 5</t>
+  </si>
+  <si>
+    <t>4 6615 63334 19 1</t>
+  </si>
+  <si>
+    <t>8 3619 05740 65 7</t>
+  </si>
+  <si>
+    <t>5 1308 82173 73 1</t>
+  </si>
+  <si>
+    <t>1 3120 15453 78 0</t>
+  </si>
+  <si>
+    <t>8 4003 52907 40 3</t>
+  </si>
+  <si>
+    <t>6 6311 05813 46 4</t>
+  </si>
+  <si>
+    <t>0 4948 7996</t>
+  </si>
+  <si>
+    <t>6 2806 29726 89 0</t>
+  </si>
+  <si>
+    <t>5 2313 93852 83 1</t>
+  </si>
+  <si>
+    <t>7 2420 22657 07 7</t>
+  </si>
+  <si>
+    <t>2 1001 75229 65 7</t>
+  </si>
+  <si>
+    <t>5 8114 44251 44 2</t>
+  </si>
+  <si>
+    <t>1 5718 83780 81 4</t>
+  </si>
+  <si>
+    <t>2 8312 21429 05 1</t>
+  </si>
+  <si>
+    <t>7 6709 69794 35 7</t>
+  </si>
+  <si>
+    <t>7 6106 74568 06 2</t>
+  </si>
+  <si>
+    <t>1 3811 47519 34 5</t>
+  </si>
+  <si>
+    <t>2 6705 41174 76 3</t>
+  </si>
+  <si>
+    <t>4 8711 37456 15 4</t>
+  </si>
+  <si>
+    <t>088 172 6796</t>
+  </si>
+  <si>
+    <t>7 2905 55497 95 5</t>
+  </si>
+  <si>
+    <t>5 8714 59482 40 2</t>
+  </si>
+  <si>
+    <t>6 8520 20992 41 0</t>
+  </si>
+  <si>
+    <t>8 2903 13975 99 3</t>
+  </si>
+  <si>
+    <t>8 1709 07863 73 1</t>
+  </si>
+  <si>
+    <t>057 452508</t>
+  </si>
+  <si>
+    <t>6 8616 23314 55 2</t>
+  </si>
+  <si>
+    <t>4 2505 42966 20 5</t>
+  </si>
+  <si>
+    <t>4 7307 95288 92 8</t>
+  </si>
+  <si>
+    <t>5 9518 49972 13 6</t>
+  </si>
+  <si>
+    <t>8 2110 15426 11 9</t>
+  </si>
+  <si>
+    <t>2 1710 24382 28 7</t>
+  </si>
+  <si>
+    <t>091 990 1801</t>
+  </si>
+  <si>
+    <t>1 8409 08735 94 5</t>
+  </si>
+  <si>
+    <t>6 3320 49329 14 4</t>
+  </si>
+  <si>
+    <t>0 5455 7681</t>
+  </si>
+  <si>
+    <t>6 4715 15267 10 1</t>
+  </si>
+  <si>
+    <t>031 667570</t>
+  </si>
+  <si>
+    <t>7 5111 37874 52 2</t>
+  </si>
+  <si>
+    <t>3 9511 98035 20 6</t>
+  </si>
+  <si>
+    <t>4 9404 80019 87 2</t>
+  </si>
+  <si>
+    <t>5 8618 57213 41 0</t>
+  </si>
+  <si>
+    <t>1 5101 00092 81 4</t>
+  </si>
+  <si>
+    <t>1 2120 46324 95 8</t>
+  </si>
+  <si>
+    <t>1749900994965</t>
+  </si>
+  <si>
+    <t>1749900994964</t>
+  </si>
+  <si>
+    <t>1749900954967</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -253,6 +1768,20 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -283,13 +1812,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -509,20 +2041,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K3:L4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="20" width="18.88671875" customWidth="1"/>
+    <col min="1" max="20" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -582,7 +2114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -590,43 +2122,43 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>23</v>
@@ -644,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -675,20 +2207,20 @@
       <c r="J3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>23</v>
@@ -706,51 +2238,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>23</v>
@@ -762,10 +2294,2924 @@
         <v>25</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="T4" s="2" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1989</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="6">
+        <v>13</v>
+      </c>
+      <c r="I6" s="6">
+        <v>12</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1998</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="6">
+        <v>24</v>
+      </c>
+      <c r="I7" s="6">
+        <v>3</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" t="s">
+        <v>100</v>
+      </c>
+      <c r="S7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4</v>
+      </c>
+      <c r="I8" s="6">
+        <v>8</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1991</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>111</v>
+      </c>
+      <c r="R8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s">
+        <v>112</v>
+      </c>
+      <c r="T8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="6">
+        <v>25</v>
+      </c>
+      <c r="I9" s="6">
+        <v>4</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1980</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R9" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" t="s">
+        <v>124</v>
+      </c>
+      <c r="T9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="6">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6">
+        <v>8</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1993</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="L10" t="s">
+        <v>129</v>
+      </c>
+      <c r="M10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N10" t="s">
+        <v>131</v>
+      </c>
+      <c r="O10" t="s">
+        <v>132</v>
+      </c>
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" t="s">
+        <v>133</v>
+      </c>
+      <c r="T10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="6">
+        <v>16</v>
+      </c>
+      <c r="I11" s="6">
+        <v>5</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1988</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="L11" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" t="s">
+        <v>140</v>
+      </c>
+      <c r="O11" t="s">
+        <v>141</v>
+      </c>
+      <c r="P11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>142</v>
+      </c>
+      <c r="R11" t="s">
+        <v>143</v>
+      </c>
+      <c r="S11" t="s">
+        <v>144</v>
+      </c>
+      <c r="T11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="6">
+        <v>27</v>
+      </c>
+      <c r="I12" s="6">
+        <v>7</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2003</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="L12" t="s">
+        <v>149</v>
+      </c>
+      <c r="M12" t="s">
+        <v>150</v>
+      </c>
+      <c r="N12" t="s">
+        <v>151</v>
+      </c>
+      <c r="O12" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>142</v>
+      </c>
+      <c r="R12" t="s">
+        <v>143</v>
+      </c>
+      <c r="S12" t="s">
+        <v>154</v>
+      </c>
+      <c r="T12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="6">
+        <v>18</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1983</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="L13" t="s">
+        <v>159</v>
+      </c>
+      <c r="M13" t="s">
+        <v>160</v>
+      </c>
+      <c r="N13" t="s">
+        <v>161</v>
+      </c>
+      <c r="O13" t="s">
+        <v>162</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>142</v>
+      </c>
+      <c r="R13" t="s">
+        <v>89</v>
+      </c>
+      <c r="S13" t="s">
+        <v>163</v>
+      </c>
+      <c r="T13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="6">
+        <v>28</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1983</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="L14" t="s">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s">
+        <v>169</v>
+      </c>
+      <c r="N14" t="s">
+        <v>170</v>
+      </c>
+      <c r="O14" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>142</v>
+      </c>
+      <c r="R14" t="s">
+        <v>100</v>
+      </c>
+      <c r="S14" t="s">
+        <v>172</v>
+      </c>
+      <c r="T14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="6">
+        <v>23</v>
+      </c>
+      <c r="I15" s="6">
+        <v>5</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2001</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="L15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s">
+        <v>178</v>
+      </c>
+      <c r="N15" t="s">
+        <v>179</v>
+      </c>
+      <c r="O15" t="s">
+        <v>180</v>
+      </c>
+      <c r="P15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>111</v>
+      </c>
+      <c r="R15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" t="s">
+        <v>181</v>
+      </c>
+      <c r="T15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" s="6">
+        <v>19</v>
+      </c>
+      <c r="I16" s="6">
+        <v>11</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2002</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="L16" t="s">
+        <v>185</v>
+      </c>
+      <c r="M16" t="s">
+        <v>186</v>
+      </c>
+      <c r="N16" t="s">
+        <v>187</v>
+      </c>
+      <c r="O16" t="s">
+        <v>188</v>
+      </c>
+      <c r="P16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s">
+        <v>189</v>
+      </c>
+      <c r="T16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1981</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="L17" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" t="s">
+        <v>195</v>
+      </c>
+      <c r="N17" t="s">
+        <v>196</v>
+      </c>
+      <c r="O17" t="s">
+        <v>197</v>
+      </c>
+      <c r="P17" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" t="s">
+        <v>199</v>
+      </c>
+      <c r="T17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="6">
+        <v>4</v>
+      </c>
+      <c r="I18" s="6">
+        <v>12</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1988</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="L18" t="s">
+        <v>204</v>
+      </c>
+      <c r="M18" t="s">
+        <v>205</v>
+      </c>
+      <c r="N18" t="s">
+        <v>206</v>
+      </c>
+      <c r="O18" t="s">
+        <v>207</v>
+      </c>
+      <c r="P18" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>88</v>
+      </c>
+      <c r="R18" t="s">
+        <v>123</v>
+      </c>
+      <c r="S18" t="s">
+        <v>208</v>
+      </c>
+      <c r="T18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" s="6">
+        <v>21</v>
+      </c>
+      <c r="I19" s="6">
+        <v>9</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2003</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="L19" t="s">
+        <v>213</v>
+      </c>
+      <c r="M19" t="s">
+        <v>534</v>
+      </c>
+      <c r="N19" t="s">
+        <v>214</v>
+      </c>
+      <c r="O19" t="s">
+        <v>215</v>
+      </c>
+      <c r="P19" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" t="s">
+        <v>143</v>
+      </c>
+      <c r="S19" t="s">
+        <v>216</v>
+      </c>
+      <c r="T19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="6">
+        <v>10</v>
+      </c>
+      <c r="I20" s="6">
+        <v>5</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1998</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="L20" t="s">
+        <v>220</v>
+      </c>
+      <c r="M20" t="s">
+        <v>221</v>
+      </c>
+      <c r="N20" t="s">
+        <v>222</v>
+      </c>
+      <c r="O20" t="s">
+        <v>223</v>
+      </c>
+      <c r="P20" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>122</v>
+      </c>
+      <c r="R20" t="s">
+        <v>123</v>
+      </c>
+      <c r="S20" t="s">
+        <v>224</v>
+      </c>
+      <c r="T20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" s="6">
+        <v>3</v>
+      </c>
+      <c r="I21" s="6">
+        <v>3</v>
+      </c>
+      <c r="J21" s="6">
+        <v>2003</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="L21" t="s">
+        <v>229</v>
+      </c>
+      <c r="M21" t="s">
+        <v>230</v>
+      </c>
+      <c r="N21" t="s">
+        <v>231</v>
+      </c>
+      <c r="O21" t="s">
+        <v>232</v>
+      </c>
+      <c r="P21" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>99</v>
+      </c>
+      <c r="R21" t="s">
+        <v>89</v>
+      </c>
+      <c r="S21" t="s">
+        <v>233</v>
+      </c>
+      <c r="T21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H22" s="6">
+        <v>18</v>
+      </c>
+      <c r="I22" s="6">
+        <v>4</v>
+      </c>
+      <c r="J22" s="6">
+        <v>2004</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="L22" t="s">
+        <v>237</v>
+      </c>
+      <c r="M22" t="s">
+        <v>238</v>
+      </c>
+      <c r="N22" t="s">
+        <v>239</v>
+      </c>
+      <c r="O22" t="s">
+        <v>240</v>
+      </c>
+      <c r="P22" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>99</v>
+      </c>
+      <c r="R22" t="s">
+        <v>143</v>
+      </c>
+      <c r="S22" t="s">
+        <v>241</v>
+      </c>
+      <c r="T22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>244</v>
+      </c>
+      <c r="G23" t="s">
+        <v>245</v>
+      </c>
+      <c r="H23" s="6">
+        <v>16</v>
+      </c>
+      <c r="I23" s="6">
+        <v>5</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1990</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="L23" t="s">
+        <v>246</v>
+      </c>
+      <c r="M23" t="s">
+        <v>247</v>
+      </c>
+      <c r="N23" t="s">
+        <v>248</v>
+      </c>
+      <c r="O23" t="s">
+        <v>249</v>
+      </c>
+      <c r="P23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>111</v>
+      </c>
+      <c r="R23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S23" t="s">
+        <v>250</v>
+      </c>
+      <c r="T23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G24" t="s">
+        <v>254</v>
+      </c>
+      <c r="H24" s="6">
+        <v>21</v>
+      </c>
+      <c r="I24" s="6">
+        <v>3</v>
+      </c>
+      <c r="J24" s="6">
+        <v>2001</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="L24" t="s">
+        <v>255</v>
+      </c>
+      <c r="M24" t="s">
+        <v>256</v>
+      </c>
+      <c r="N24" t="s">
+        <v>257</v>
+      </c>
+      <c r="O24" t="s">
+        <v>258</v>
+      </c>
+      <c r="P24" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>88</v>
+      </c>
+      <c r="R24" t="s">
+        <v>100</v>
+      </c>
+      <c r="S24" t="s">
+        <v>259</v>
+      </c>
+      <c r="T24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>261</v>
+      </c>
+      <c r="G25" t="s">
+        <v>262</v>
+      </c>
+      <c r="H25" s="6">
+        <v>17</v>
+      </c>
+      <c r="I25" s="6">
+        <v>3</v>
+      </c>
+      <c r="J25" s="6">
+        <v>2001</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="L25" t="s">
+        <v>263</v>
+      </c>
+      <c r="M25" t="s">
+        <v>264</v>
+      </c>
+      <c r="N25" t="s">
+        <v>265</v>
+      </c>
+      <c r="O25" t="s">
+        <v>266</v>
+      </c>
+      <c r="P25" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>142</v>
+      </c>
+      <c r="R25" t="s">
+        <v>76</v>
+      </c>
+      <c r="S25" t="s">
+        <v>267</v>
+      </c>
+      <c r="T25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>270</v>
+      </c>
+      <c r="G26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H26" s="6">
+        <v>20</v>
+      </c>
+      <c r="I26" s="6">
+        <v>7</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1984</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="L26" t="s">
+        <v>272</v>
+      </c>
+      <c r="M26" t="s">
+        <v>273</v>
+      </c>
+      <c r="N26" t="s">
+        <v>274</v>
+      </c>
+      <c r="O26" t="s">
+        <v>275</v>
+      </c>
+      <c r="P26" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>88</v>
+      </c>
+      <c r="R26" t="s">
+        <v>143</v>
+      </c>
+      <c r="S26" t="s">
+        <v>276</v>
+      </c>
+      <c r="T26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>279</v>
+      </c>
+      <c r="G27" t="s">
+        <v>280</v>
+      </c>
+      <c r="H27" s="6">
+        <v>25</v>
+      </c>
+      <c r="I27" s="6">
+        <v>12</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1984</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="L27" t="s">
+        <v>281</v>
+      </c>
+      <c r="M27" t="s">
+        <v>282</v>
+      </c>
+      <c r="N27" t="s">
+        <v>283</v>
+      </c>
+      <c r="O27" t="s">
+        <v>284</v>
+      </c>
+      <c r="P27" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>142</v>
+      </c>
+      <c r="R27" t="s">
+        <v>143</v>
+      </c>
+      <c r="S27" t="s">
+        <v>285</v>
+      </c>
+      <c r="T27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>286</v>
+      </c>
+      <c r="D28" t="s">
+        <v>287</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>288</v>
+      </c>
+      <c r="G28" t="s">
+        <v>289</v>
+      </c>
+      <c r="H28" s="6">
+        <v>10</v>
+      </c>
+      <c r="I28" s="6">
+        <v>4</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1993</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="L28" t="s">
+        <v>290</v>
+      </c>
+      <c r="M28" t="s">
+        <v>291</v>
+      </c>
+      <c r="N28" t="s">
+        <v>292</v>
+      </c>
+      <c r="O28" t="s">
+        <v>293</v>
+      </c>
+      <c r="P28" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>99</v>
+      </c>
+      <c r="R28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S28" t="s">
+        <v>294</v>
+      </c>
+      <c r="T28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" t="s">
+        <v>296</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>297</v>
+      </c>
+      <c r="G29" t="s">
+        <v>298</v>
+      </c>
+      <c r="H29" s="6">
+        <v>19</v>
+      </c>
+      <c r="I29" s="6">
+        <v>11</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1995</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="L29" t="s">
+        <v>299</v>
+      </c>
+      <c r="M29" t="s">
+        <v>300</v>
+      </c>
+      <c r="N29" t="s">
+        <v>301</v>
+      </c>
+      <c r="O29" t="s">
+        <v>302</v>
+      </c>
+      <c r="P29" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>142</v>
+      </c>
+      <c r="R29" t="s">
+        <v>100</v>
+      </c>
+      <c r="S29" t="s">
+        <v>303</v>
+      </c>
+      <c r="T29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D30" t="s">
+        <v>269</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>305</v>
+      </c>
+      <c r="G30" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" s="6">
+        <v>13</v>
+      </c>
+      <c r="I30" s="6">
+        <v>11</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1982</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="L30" t="s">
+        <v>306</v>
+      </c>
+      <c r="M30" t="s">
+        <v>307</v>
+      </c>
+      <c r="N30" t="s">
+        <v>308</v>
+      </c>
+      <c r="O30" t="s">
+        <v>309</v>
+      </c>
+      <c r="P30" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>88</v>
+      </c>
+      <c r="R30" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" t="s">
+        <v>310</v>
+      </c>
+      <c r="T30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" t="s">
+        <v>312</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>313</v>
+      </c>
+      <c r="G31" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="6">
+        <v>4</v>
+      </c>
+      <c r="I31" s="6">
+        <v>8</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1984</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="L31" t="s">
+        <v>314</v>
+      </c>
+      <c r="M31" t="s">
+        <v>547</v>
+      </c>
+      <c r="N31" t="s">
+        <v>315</v>
+      </c>
+      <c r="O31" t="s">
+        <v>316</v>
+      </c>
+      <c r="P31" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>122</v>
+      </c>
+      <c r="R31" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" t="s">
+        <v>317</v>
+      </c>
+      <c r="T31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D32" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>320</v>
+      </c>
+      <c r="G32" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="6">
+        <v>22</v>
+      </c>
+      <c r="I32" s="6">
+        <v>5</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1994</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="L32" t="s">
+        <v>321</v>
+      </c>
+      <c r="M32" t="s">
+        <v>322</v>
+      </c>
+      <c r="N32" t="s">
+        <v>323</v>
+      </c>
+      <c r="O32" t="s">
+        <v>324</v>
+      </c>
+      <c r="P32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" t="s">
+        <v>123</v>
+      </c>
+      <c r="S32" t="s">
+        <v>325</v>
+      </c>
+      <c r="T32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" t="s">
+        <v>326</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>327</v>
+      </c>
+      <c r="G33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H33" s="6">
+        <v>8</v>
+      </c>
+      <c r="I33" s="6">
+        <v>2</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1999</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="L33" t="s">
+        <v>329</v>
+      </c>
+      <c r="M33" t="s">
+        <v>330</v>
+      </c>
+      <c r="N33" t="s">
+        <v>331</v>
+      </c>
+      <c r="O33" t="s">
+        <v>332</v>
+      </c>
+      <c r="P33" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" t="s">
+        <v>89</v>
+      </c>
+      <c r="S33" t="s">
+        <v>333</v>
+      </c>
+      <c r="T33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D34" t="s">
+        <v>335</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" t="s">
+        <v>336</v>
+      </c>
+      <c r="G34" t="s">
+        <v>337</v>
+      </c>
+      <c r="H34" s="6">
+        <v>4</v>
+      </c>
+      <c r="I34" s="6">
+        <v>10</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1990</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="L34" t="s">
+        <v>338</v>
+      </c>
+      <c r="M34" t="s">
+        <v>339</v>
+      </c>
+      <c r="N34" t="s">
+        <v>340</v>
+      </c>
+      <c r="O34" t="s">
+        <v>341</v>
+      </c>
+      <c r="P34" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" t="s">
+        <v>123</v>
+      </c>
+      <c r="S34" t="s">
+        <v>342</v>
+      </c>
+      <c r="T34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" t="s">
+        <v>344</v>
+      </c>
+      <c r="G35" t="s">
+        <v>345</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6">
+        <v>2</v>
+      </c>
+      <c r="J35" s="6">
+        <v>2005</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="L35" t="s">
+        <v>346</v>
+      </c>
+      <c r="M35" t="s">
+        <v>347</v>
+      </c>
+      <c r="N35" t="s">
+        <v>348</v>
+      </c>
+      <c r="O35" t="s">
+        <v>349</v>
+      </c>
+      <c r="P35" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>142</v>
+      </c>
+      <c r="R35" t="s">
+        <v>100</v>
+      </c>
+      <c r="S35" t="s">
+        <v>350</v>
+      </c>
+      <c r="T35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>286</v>
+      </c>
+      <c r="D36" t="s">
+        <v>351</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>352</v>
+      </c>
+      <c r="G36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" s="6">
+        <v>28</v>
+      </c>
+      <c r="I36" s="6">
+        <v>3</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1989</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="L36" t="s">
+        <v>353</v>
+      </c>
+      <c r="M36" t="s">
+        <v>553</v>
+      </c>
+      <c r="N36" t="s">
+        <v>354</v>
+      </c>
+      <c r="O36" t="s">
+        <v>355</v>
+      </c>
+      <c r="P36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>111</v>
+      </c>
+      <c r="R36" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" t="s">
+        <v>356</v>
+      </c>
+      <c r="T36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>357</v>
+      </c>
+      <c r="D37" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>359</v>
+      </c>
+      <c r="G37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="6">
+        <v>8</v>
+      </c>
+      <c r="I37" s="6">
+        <v>5</v>
+      </c>
+      <c r="J37" s="6">
+        <v>1997</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="L37" t="s">
+        <v>360</v>
+      </c>
+      <c r="M37" t="s">
+        <v>361</v>
+      </c>
+      <c r="N37" t="s">
+        <v>362</v>
+      </c>
+      <c r="O37" t="s">
+        <v>363</v>
+      </c>
+      <c r="P37" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>122</v>
+      </c>
+      <c r="R37" t="s">
+        <v>100</v>
+      </c>
+      <c r="S37" t="s">
+        <v>364</v>
+      </c>
+      <c r="T37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>365</v>
+      </c>
+      <c r="D38" t="s">
+        <v>366</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" t="s">
+        <v>367</v>
+      </c>
+      <c r="G38" t="s">
+        <v>368</v>
+      </c>
+      <c r="H38" s="6">
+        <v>11</v>
+      </c>
+      <c r="I38" s="6">
+        <v>4</v>
+      </c>
+      <c r="J38" s="6">
+        <v>1998</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="L38" t="s">
+        <v>369</v>
+      </c>
+      <c r="M38" t="s">
+        <v>370</v>
+      </c>
+      <c r="N38" t="s">
+        <v>371</v>
+      </c>
+      <c r="O38" t="s">
+        <v>372</v>
+      </c>
+      <c r="P38" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>142</v>
+      </c>
+      <c r="R38" t="s">
+        <v>143</v>
+      </c>
+      <c r="S38" t="s">
+        <v>373</v>
+      </c>
+      <c r="T38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>374</v>
+      </c>
+      <c r="D39" t="s">
+        <v>375</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" t="s">
+        <v>218</v>
+      </c>
+      <c r="H39" s="6">
+        <v>10</v>
+      </c>
+      <c r="I39" s="6">
+        <v>1</v>
+      </c>
+      <c r="J39" s="6">
+        <v>1984</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="L39" t="s">
+        <v>376</v>
+      </c>
+      <c r="M39" t="s">
+        <v>377</v>
+      </c>
+      <c r="N39" t="s">
+        <v>378</v>
+      </c>
+      <c r="O39" t="s">
+        <v>379</v>
+      </c>
+      <c r="P39" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>111</v>
+      </c>
+      <c r="R39" t="s">
+        <v>143</v>
+      </c>
+      <c r="S39" t="s">
+        <v>380</v>
+      </c>
+      <c r="T39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>381</v>
+      </c>
+      <c r="D40" t="s">
+        <v>382</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>383</v>
+      </c>
+      <c r="G40" t="s">
+        <v>384</v>
+      </c>
+      <c r="H40" s="6">
+        <v>26</v>
+      </c>
+      <c r="I40" s="6">
+        <v>4</v>
+      </c>
+      <c r="J40" s="6">
+        <v>1983</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="L40" t="s">
+        <v>385</v>
+      </c>
+      <c r="M40" t="s">
+        <v>386</v>
+      </c>
+      <c r="N40" t="s">
+        <v>387</v>
+      </c>
+      <c r="O40" t="s">
+        <v>388</v>
+      </c>
+      <c r="P40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>111</v>
+      </c>
+      <c r="R40" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" t="s">
+        <v>389</v>
+      </c>
+      <c r="T40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>390</v>
+      </c>
+      <c r="D41" t="s">
+        <v>391</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>392</v>
+      </c>
+      <c r="G41" t="s">
+        <v>393</v>
+      </c>
+      <c r="H41" s="6">
+        <v>27</v>
+      </c>
+      <c r="I41" s="6">
+        <v>10</v>
+      </c>
+      <c r="J41" s="6">
+        <v>1980</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="L41" t="s">
+        <v>394</v>
+      </c>
+      <c r="M41" t="s">
+        <v>395</v>
+      </c>
+      <c r="N41" t="s">
+        <v>396</v>
+      </c>
+      <c r="O41" t="s">
+        <v>397</v>
+      </c>
+      <c r="P41" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" t="s">
+        <v>123</v>
+      </c>
+      <c r="S41" t="s">
+        <v>398</v>
+      </c>
+      <c r="T41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>399</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G42" t="s">
+        <v>400</v>
+      </c>
+      <c r="H42" s="6">
+        <v>7</v>
+      </c>
+      <c r="I42" s="6">
+        <v>5</v>
+      </c>
+      <c r="J42" s="6">
+        <v>2005</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="L42" t="s">
+        <v>401</v>
+      </c>
+      <c r="M42" t="s">
+        <v>560</v>
+      </c>
+      <c r="N42" t="s">
+        <v>402</v>
+      </c>
+      <c r="O42" t="s">
+        <v>403</v>
+      </c>
+      <c r="P42" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>111</v>
+      </c>
+      <c r="R42" t="s">
+        <v>89</v>
+      </c>
+      <c r="S42" t="s">
+        <v>404</v>
+      </c>
+      <c r="T42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>405</v>
+      </c>
+      <c r="D43" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" t="s">
+        <v>381</v>
+      </c>
+      <c r="G43" t="s">
+        <v>406</v>
+      </c>
+      <c r="H43" s="6">
+        <v>8</v>
+      </c>
+      <c r="I43" s="6">
+        <v>2</v>
+      </c>
+      <c r="J43" s="6">
+        <v>1984</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="L43" t="s">
+        <v>407</v>
+      </c>
+      <c r="M43" t="s">
+        <v>408</v>
+      </c>
+      <c r="N43" t="s">
+        <v>409</v>
+      </c>
+      <c r="O43" t="s">
+        <v>410</v>
+      </c>
+      <c r="P43" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>142</v>
+      </c>
+      <c r="R43" t="s">
+        <v>143</v>
+      </c>
+      <c r="S43" t="s">
+        <v>411</v>
+      </c>
+      <c r="T43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>412</v>
+      </c>
+      <c r="D44" t="s">
+        <v>335</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>413</v>
+      </c>
+      <c r="G44" t="s">
+        <v>165</v>
+      </c>
+      <c r="H44" s="6">
+        <v>11</v>
+      </c>
+      <c r="I44" s="6">
+        <v>3</v>
+      </c>
+      <c r="J44" s="6">
+        <v>1987</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="L44" t="s">
+        <v>414</v>
+      </c>
+      <c r="M44" t="s">
+        <v>563</v>
+      </c>
+      <c r="N44" t="s">
+        <v>415</v>
+      </c>
+      <c r="O44" t="s">
+        <v>416</v>
+      </c>
+      <c r="P44" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>111</v>
+      </c>
+      <c r="R44" t="s">
+        <v>76</v>
+      </c>
+      <c r="S44" t="s">
+        <v>417</v>
+      </c>
+      <c r="T44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" t="s">
+        <v>418</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>419</v>
+      </c>
+      <c r="G45" t="s">
+        <v>262</v>
+      </c>
+      <c r="H45" s="6">
+        <v>28</v>
+      </c>
+      <c r="I45" s="6">
+        <v>9</v>
+      </c>
+      <c r="J45" s="6">
+        <v>1980</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="L45" t="s">
+        <v>420</v>
+      </c>
+      <c r="M45" t="s">
+        <v>565</v>
+      </c>
+      <c r="N45" t="s">
+        <v>421</v>
+      </c>
+      <c r="O45" t="s">
+        <v>422</v>
+      </c>
+      <c r="P45" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>88</v>
+      </c>
+      <c r="R45" t="s">
+        <v>89</v>
+      </c>
+      <c r="S45" t="s">
+        <v>423</v>
+      </c>
+      <c r="T45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>424</v>
+      </c>
+      <c r="D46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" t="s">
+        <v>425</v>
+      </c>
+      <c r="H46" s="6">
+        <v>24</v>
+      </c>
+      <c r="I46" s="6">
+        <v>2</v>
+      </c>
+      <c r="J46" s="6">
+        <v>2003</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="L46" t="s">
+        <v>426</v>
+      </c>
+      <c r="M46" t="s">
+        <v>427</v>
+      </c>
+      <c r="N46" t="s">
+        <v>428</v>
+      </c>
+      <c r="O46" t="s">
+        <v>429</v>
+      </c>
+      <c r="P46" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" t="s">
+        <v>76</v>
+      </c>
+      <c r="S46" t="s">
+        <v>430</v>
+      </c>
+      <c r="T46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D47" t="s">
+        <v>431</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>432</v>
+      </c>
+      <c r="G47" t="s">
+        <v>433</v>
+      </c>
+      <c r="H47" s="6">
+        <v>5</v>
+      </c>
+      <c r="I47" s="6">
+        <v>4</v>
+      </c>
+      <c r="J47" s="6">
+        <v>1991</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="L47" t="s">
+        <v>434</v>
+      </c>
+      <c r="M47" t="s">
+        <v>435</v>
+      </c>
+      <c r="N47" t="s">
+        <v>436</v>
+      </c>
+      <c r="O47" t="s">
+        <v>437</v>
+      </c>
+      <c r="P47" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>88</v>
+      </c>
+      <c r="R47" t="s">
+        <v>25</v>
+      </c>
+      <c r="S47" t="s">
+        <v>438</v>
+      </c>
+      <c r="T47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>439</v>
+      </c>
+      <c r="D48" t="s">
+        <v>440</v>
+      </c>
+      <c r="E48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>441</v>
+      </c>
+      <c r="H48" s="6">
+        <v>12</v>
+      </c>
+      <c r="I48" s="6">
+        <v>3</v>
+      </c>
+      <c r="J48" s="6">
+        <v>1980</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="L48" t="s">
+        <v>442</v>
+      </c>
+      <c r="M48" t="s">
+        <v>443</v>
+      </c>
+      <c r="N48" t="s">
+        <v>444</v>
+      </c>
+      <c r="O48" t="s">
+        <v>445</v>
+      </c>
+      <c r="P48" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>111</v>
+      </c>
+      <c r="R48" t="s">
+        <v>76</v>
+      </c>
+      <c r="S48" t="s">
+        <v>446</v>
+      </c>
+      <c r="T48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>447</v>
+      </c>
+      <c r="D49" t="s">
+        <v>448</v>
+      </c>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" t="s">
+        <v>449</v>
+      </c>
+      <c r="G49" t="s">
+        <v>167</v>
+      </c>
+      <c r="H49" s="6">
+        <v>29</v>
+      </c>
+      <c r="I49" s="6">
+        <v>6</v>
+      </c>
+      <c r="J49" s="6">
+        <v>1995</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="L49" t="s">
+        <v>450</v>
+      </c>
+      <c r="M49" t="s">
+        <v>451</v>
+      </c>
+      <c r="N49" t="s">
+        <v>452</v>
+      </c>
+      <c r="O49" t="s">
+        <v>453</v>
+      </c>
+      <c r="P49" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>142</v>
+      </c>
+      <c r="R49" t="s">
+        <v>89</v>
+      </c>
+      <c r="S49" t="s">
+        <v>454</v>
+      </c>
+      <c r="T49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>455</v>
+      </c>
+      <c r="D50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" t="s">
+        <v>456</v>
+      </c>
+      <c r="G50" t="s">
+        <v>457</v>
+      </c>
+      <c r="H50" s="6">
+        <v>4</v>
+      </c>
+      <c r="I50" s="6">
+        <v>2</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1986</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="L50" t="s">
+        <v>458</v>
+      </c>
+      <c r="M50" t="s">
+        <v>459</v>
+      </c>
+      <c r="N50" t="s">
+        <v>460</v>
+      </c>
+      <c r="O50" t="s">
+        <v>461</v>
+      </c>
+      <c r="P50" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>122</v>
+      </c>
+      <c r="R50" t="s">
+        <v>89</v>
+      </c>
+      <c r="S50" t="s">
+        <v>462</v>
+      </c>
+      <c r="T50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>463</v>
+      </c>
+      <c r="D51" t="s">
+        <v>464</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" t="s">
+        <v>465</v>
+      </c>
+      <c r="G51" t="s">
+        <v>466</v>
+      </c>
+      <c r="H51" s="6">
+        <v>26</v>
+      </c>
+      <c r="I51" s="6">
+        <v>7</v>
+      </c>
+      <c r="J51" s="6">
+        <v>2001</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="L51" t="s">
+        <v>467</v>
+      </c>
+      <c r="M51" t="s">
+        <v>468</v>
+      </c>
+      <c r="N51" t="s">
+        <v>469</v>
+      </c>
+      <c r="O51" t="s">
+        <v>470</v>
+      </c>
+      <c r="P51" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>142</v>
+      </c>
+      <c r="R51" t="s">
+        <v>123</v>
+      </c>
+      <c r="S51" t="s">
+        <v>471</v>
+      </c>
+      <c r="T51" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -774,5 +5220,6 @@
     <hyperlink ref="N4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
 </worksheet>
 </file>
--- a/exel/Sci.xlsx
+++ b/exel/Sci.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\DataTestDriven\exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\DataTestDriven\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="523">
   <si>
     <t>คำนำหน้าภาษาไทย</t>
   </si>
@@ -132,9 +132,6 @@
     <t>2005</t>
   </si>
   <si>
-    <t>somying1234</t>
-  </si>
-  <si>
     <t>somying@gmail.com</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>09</t>
   </si>
   <si>
-    <t>K33332222</t>
-  </si>
-  <si>
     <t>0959042353</t>
   </si>
   <si>
@@ -204,9 +198,6 @@
     <t>2006</t>
   </si>
   <si>
-    <t>maimum444</t>
-  </si>
-  <si>
     <t>0659987525</t>
   </si>
   <si>
@@ -234,12 +225,6 @@
     <t>ดิสกะประกาย</t>
   </si>
   <si>
-    <t>ZYL!1HGq</t>
-  </si>
-  <si>
-    <t>+66 (0) 5212 7954</t>
-  </si>
-  <si>
     <t>chukrii96@brisath.co.th</t>
   </si>
   <si>
@@ -255,9 +240,6 @@
     <t>57360</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>เขมจิรา</t>
   </si>
   <si>
@@ -270,12 +252,6 @@
     <t>นาคะนคร</t>
   </si>
   <si>
-    <t>G&amp;HA7Fns</t>
-  </si>
-  <si>
-    <t>+663 704 1947</t>
-  </si>
-  <si>
     <t>thuupawiorcchnphaasukh@chmrmthngsiiaiphl.in.th</t>
   </si>
   <si>
@@ -306,12 +282,6 @@
     <t>พรสีมา</t>
   </si>
   <si>
-    <t>$LV56OdM</t>
-  </si>
-  <si>
-    <t>+66 (0) 3640 5779</t>
-  </si>
-  <si>
     <t>thnadraksaanirandr@protonmail.com</t>
   </si>
   <si>
@@ -339,12 +309,6 @@
     <t>ดาบเงิน</t>
   </si>
   <si>
-    <t>u$6AJljO</t>
-  </si>
-  <si>
-    <t>+66 5653 8823</t>
-  </si>
-  <si>
     <t>ichamnaaywaad@haanghunswncchamkad.co.th</t>
   </si>
   <si>
@@ -372,12 +336,6 @@
     <t>เนื้อนุ่ม</t>
   </si>
   <si>
-    <t>&amp;w(p1F_k</t>
-  </si>
-  <si>
-    <t>0 902 096 862</t>
-  </si>
-  <si>
     <t>wkumaarbuy@haanghunswnsaamay.co.th</t>
   </si>
   <si>
@@ -408,12 +366,6 @@
     <t>นวลเพ็ง</t>
   </si>
   <si>
-    <t>@8qAZUTq</t>
-  </si>
-  <si>
-    <t>+66 3005 1346</t>
-  </si>
-  <si>
     <t>naamkhamthitiyaaphr@protonmail.com</t>
   </si>
   <si>
@@ -423,9 +375,6 @@
     <t>47480</t>
   </si>
   <si>
-    <t>FALSE</t>
-  </si>
-  <si>
     <t>กษิดิฐ</t>
   </si>
   <si>
@@ -435,12 +384,6 @@
     <t>ยูซุฟ</t>
   </si>
   <si>
-    <t>&amp;0KT!Hgt</t>
-  </si>
-  <si>
-    <t>0820498816</t>
-  </si>
-  <si>
     <t>udmlaksnetmiyaedch@haanghunswnsaamay.com</t>
   </si>
   <si>
@@ -468,12 +411,6 @@
     <t>คณานุรักษ์</t>
   </si>
   <si>
-    <t>2B)5$Eux</t>
-  </si>
-  <si>
-    <t>+66 2722 9625</t>
-  </si>
-  <si>
     <t>chuusaarnitiyaa@kon.in.th</t>
   </si>
   <si>
@@ -498,12 +435,6 @@
     <t>สาระพันธ์</t>
   </si>
   <si>
-    <t>^%9WgRic</t>
-  </si>
-  <si>
-    <t>0 629 744 507</t>
-  </si>
-  <si>
     <t>tinratndwngsmr@hcchkaennducchpm.com</t>
   </si>
   <si>
@@ -525,12 +456,6 @@
     <t>นพตระกูล</t>
   </si>
   <si>
-    <t>p)I4#STx</t>
-  </si>
-  <si>
-    <t>+66 (0) 7571 6367</t>
-  </si>
-  <si>
     <t>eliskingecchsdaakr@brisath.co.th</t>
   </si>
   <si>
@@ -552,12 +477,6 @@
     <t>บัวเผื่อน</t>
   </si>
   <si>
-    <t>8@2j@3Hh</t>
-  </si>
-  <si>
-    <t>022097464</t>
-  </si>
-  <si>
     <t>dwngthabthimkrtemth@brisath.co.th</t>
   </si>
   <si>
@@ -576,12 +495,6 @@
     <t>จันทา</t>
   </si>
   <si>
-    <t>)82NntTV</t>
-  </si>
-  <si>
-    <t>+66 841 465 953</t>
-  </si>
-  <si>
     <t>jthnmmnusy@outlook.com</t>
   </si>
   <si>
@@ -603,12 +516,6 @@
     <t>ดาบเพ็ชร์</t>
   </si>
   <si>
-    <t>*k$3*2Wo</t>
-  </si>
-  <si>
-    <t>+66 2642 4589</t>
-  </si>
-  <si>
     <t>cchuthaaphrndiskaprakaay@thiikhaaeladaawraam.com</t>
   </si>
   <si>
@@ -633,12 +540,6 @@
     <t>เขียวอ่อน</t>
   </si>
   <si>
-    <t>%Bp50Vkn</t>
-  </si>
-  <si>
-    <t>03 482 8609</t>
-  </si>
-  <si>
     <t>cchrryphr60@hcchkdaatuu.com</t>
   </si>
   <si>
@@ -660,9 +561,6 @@
     <t>ทศโยธิน</t>
   </si>
   <si>
-    <t>*0beLbky</t>
-  </si>
-  <si>
     <t>thrrmniymphimphphichyaa@kon.in.th</t>
   </si>
   <si>
@@ -681,12 +579,6 @@
     <t>อาภัศรา</t>
   </si>
   <si>
-    <t>#X2lE$*m</t>
-  </si>
-  <si>
-    <t>+66 (0) 845 553 284</t>
-  </si>
-  <si>
     <t>maariiniiphrsiimaa@chmrmthraphysaar.com</t>
   </si>
   <si>
@@ -708,12 +600,6 @@
     <t>ธรรมเมธา</t>
   </si>
   <si>
-    <t>*_$6EkhL</t>
-  </si>
-  <si>
-    <t>0 4888 2456</t>
-  </si>
-  <si>
     <t>rmitaatangkulngaam@bcchkthayesthiiyrethrdding.in.th</t>
   </si>
   <si>
@@ -732,12 +618,6 @@
     <t>ทองแท้</t>
   </si>
   <si>
-    <t>(H*1TZ1n</t>
-  </si>
-  <si>
-    <t>05 635 7935</t>
-  </si>
-  <si>
     <t>wuthidwngosn@haanghunswnsaamay.co.th</t>
   </si>
   <si>
@@ -759,12 +639,6 @@
     <t>พรรษาสกุล</t>
   </si>
   <si>
-    <t>m!&amp;3SNJd</t>
-  </si>
-  <si>
-    <t>+66 (0) 3124 9181</t>
-  </si>
-  <si>
     <t>eliskingnichnanth@brisath.co.th</t>
   </si>
   <si>
@@ -786,12 +660,6 @@
     <t>ถนัดหัตถกรรม</t>
   </si>
   <si>
-    <t>!@Aa4dZl</t>
-  </si>
-  <si>
-    <t>025 880429</t>
-  </si>
-  <si>
     <t>piynaadthrngokml@hotmail.com</t>
   </si>
   <si>
@@ -810,12 +678,6 @@
     <t>วุฑฒยากร</t>
   </si>
   <si>
-    <t>C%4)pBIf</t>
-  </si>
-  <si>
-    <t>+66 (0) 3315 5981</t>
-  </si>
-  <si>
     <t>khnaanuraksraanii@chmrmsantawngs.co</t>
   </si>
   <si>
@@ -837,12 +699,6 @@
     <t>ตั้งกุลงาม</t>
   </si>
   <si>
-    <t>@xr27+Ox</t>
-  </si>
-  <si>
-    <t>0644076629</t>
-  </si>
-  <si>
     <t>naathphuuwphathnbawephuuen@ymail.com</t>
   </si>
   <si>
@@ -864,12 +720,6 @@
     <t>นามเสวตร</t>
   </si>
   <si>
-    <t>b)7Lym6t</t>
-  </si>
-  <si>
-    <t>+66 2982 2841</t>
-  </si>
-  <si>
     <t>sraaycchitthiraysaalii@brisath.in.th</t>
   </si>
   <si>
@@ -891,12 +741,6 @@
     <t>ศรีสัตย์</t>
   </si>
   <si>
-    <t>*+X2Z3Vp</t>
-  </si>
-  <si>
-    <t>03 096 8550</t>
-  </si>
-  <si>
     <t>ssiyaahmphikul@kon.in.th</t>
   </si>
   <si>
@@ -918,12 +762,6 @@
     <t>เตชะกำพุ</t>
   </si>
   <si>
-    <t>+(r8rmZe</t>
-  </si>
-  <si>
-    <t>+66 7884 1738</t>
-  </si>
-  <si>
     <t>thraphysaarladdaa@yahoo.com</t>
   </si>
   <si>
@@ -939,12 +777,6 @@
     <t>ฐิติณัฐฐา</t>
   </si>
   <si>
-    <t>A)H0ZymT</t>
-  </si>
-  <si>
-    <t>+66 5399 1895</t>
-  </si>
-  <si>
     <t>pchaayaesng@gmail.com</t>
   </si>
   <si>
@@ -963,9 +795,6 @@
     <t>อณาวิน</t>
   </si>
   <si>
-    <t>a!6gRAy6</t>
-  </si>
-  <si>
     <t>nrphaythitiwuthi@brisath.co.th</t>
   </si>
   <si>
@@ -984,12 +813,6 @@
     <t>ทวีวัฒน์</t>
   </si>
   <si>
-    <t>_G2X3udq</t>
-  </si>
-  <si>
-    <t>+66 (0) 4619 4109</t>
-  </si>
-  <si>
     <t>lthaawrratn@icloud.com</t>
   </si>
   <si>
@@ -1008,12 +831,6 @@
     <t>สงประเสริฐ</t>
   </si>
   <si>
-    <t>0C!0$Kdg</t>
-  </si>
-  <si>
-    <t>+662 133 4348</t>
-  </si>
-  <si>
     <t>nilathatwalyaa@edchkhumechrwis.com</t>
   </si>
   <si>
@@ -1035,12 +852,6 @@
     <t>ถาวรายุศม์</t>
   </si>
   <si>
-    <t>n$*S5Dog</t>
-  </si>
-  <si>
-    <t>+66 3383 0660</t>
-  </si>
-  <si>
     <t>etalaphat@icloud.com</t>
   </si>
   <si>
@@ -1059,12 +870,6 @@
     <t>ทองอยู่</t>
   </si>
   <si>
-    <t>X3!73SXu</t>
-  </si>
-  <si>
-    <t>+66 2206 8265</t>
-  </si>
-  <si>
     <t>nnthkaaycchnthungengin@hotmail.com</t>
   </si>
   <si>
@@ -1080,9 +885,6 @@
     <t>ซูไรดา</t>
   </si>
   <si>
-    <t>$2Dykmi7</t>
-  </si>
-  <si>
     <t>aythikaasriiwngkh@gmail.com</t>
   </si>
   <si>
@@ -1101,12 +903,6 @@
     <t>ฮามีย๊ะ</t>
   </si>
   <si>
-    <t>J&amp;1sTbGp</t>
-  </si>
-  <si>
-    <t>0 801 294 176</t>
-  </si>
-  <si>
     <t>ekstr59@hotmail.com</t>
   </si>
   <si>
@@ -1128,12 +924,6 @@
     <t>ตะละภัฏ</t>
   </si>
   <si>
-    <t>8)2w*PVg</t>
-  </si>
-  <si>
-    <t>0 3008 1562</t>
-  </si>
-  <si>
     <t>priyyaa88@nilesnaaaelanilwrrn.in.th</t>
   </si>
   <si>
@@ -1149,12 +939,6 @@
     <t>ดาวอร่าม</t>
   </si>
   <si>
-    <t>z#4RFyVn</t>
-  </si>
-  <si>
-    <t>0 2849 2347</t>
-  </si>
-  <si>
     <t>fephiiyyaa@icloud.com</t>
   </si>
   <si>
@@ -1176,12 +960,6 @@
     <t>นฤทุกข์</t>
   </si>
   <si>
-    <t>%tN1kRv^</t>
-  </si>
-  <si>
-    <t>042992847</t>
-  </si>
-  <si>
     <t>thnadraksaaphaaswuthi@protonmail.com</t>
   </si>
   <si>
@@ -1203,12 +981,6 @@
     <t>ประจันตะเสน</t>
   </si>
   <si>
-    <t>**4WAF#g</t>
-  </si>
-  <si>
-    <t>+665 150 7854</t>
-  </si>
-  <si>
     <t>thinphr01@gmail.com</t>
   </si>
   <si>
@@ -1224,9 +996,6 @@
     <t>นฤภัย</t>
   </si>
   <si>
-    <t>&amp;d5FtBrY</t>
-  </si>
-  <si>
     <t>sorchaa74@brisath.go.th</t>
   </si>
   <si>
@@ -1242,12 +1011,6 @@
     <t>บุตราช</t>
   </si>
   <si>
-    <t>3W$6Dn3b</t>
-  </si>
-  <si>
-    <t>+66 662 387 345</t>
-  </si>
-  <si>
     <t>thnphnaekwchlkhraam@gmail.com</t>
   </si>
   <si>
@@ -1263,9 +1026,6 @@
     <t>จักรีรัตน์</t>
   </si>
   <si>
-    <t>U%Ng3N2d</t>
-  </si>
-  <si>
     <t>zdamrihchb@outlook.com</t>
   </si>
   <si>
@@ -1281,9 +1041,6 @@
     <t>มะลีวัลย์</t>
   </si>
   <si>
-    <t>h2(&amp;4zUm</t>
-  </si>
-  <si>
     <t>lthaaraathr@protonmail.com</t>
   </si>
   <si>
@@ -1299,12 +1056,6 @@
     <t>นาถะเดชะ</t>
   </si>
   <si>
-    <t>F(^3RaPe</t>
-  </si>
-  <si>
-    <t>0 987 930 636</t>
-  </si>
-  <si>
     <t>piyananth39@haanghunswnsaamay.go.th</t>
   </si>
   <si>
@@ -1323,12 +1074,6 @@
     <t>ทองสินธุ์</t>
   </si>
   <si>
-    <t>+)7W@m)U</t>
-  </si>
-  <si>
-    <t>+66 870 961 860</t>
-  </si>
-  <si>
     <t>muuhamhmadimrnnaakhsuthin@haanghunswncchamkad.com</t>
   </si>
   <si>
@@ -1347,12 +1092,6 @@
     <t>พรมอ่อน</t>
   </si>
   <si>
-    <t>u+96Dzd@</t>
-  </si>
-  <si>
-    <t>045 871002</t>
-  </si>
-  <si>
     <t>wrinththithrphiiraephykul@brisath.com</t>
   </si>
   <si>
@@ -1371,12 +1110,6 @@
     <t>สิริกานต์</t>
   </si>
   <si>
-    <t>*3Z)GSji</t>
-  </si>
-  <si>
-    <t>+66 962 625 385</t>
-  </si>
-  <si>
     <t>phkaathiphynamthwach@kon.in.th</t>
   </si>
   <si>
@@ -1395,12 +1128,6 @@
     <t>นรวิทย์โชติกุล</t>
   </si>
   <si>
-    <t>#3N13tsl</t>
-  </si>
-  <si>
-    <t>0 633 212 268</t>
-  </si>
-  <si>
     <t>suthaawii24@gmail.com</t>
   </si>
   <si>
@@ -1422,12 +1149,6 @@
     <t>ศรีอุ่น</t>
   </si>
   <si>
-    <t>I^G3fKbl</t>
-  </si>
-  <si>
-    <t>033 697499</t>
-  </si>
-  <si>
     <t>kitiyaathrnaenwphnich@gmail.com</t>
   </si>
   <si>
@@ -1578,165 +1299,6 @@
     <t>tc150</t>
   </si>
   <si>
-    <t>6 6120 56640 40 0</t>
-  </si>
-  <si>
-    <t>3 2614 73788 32 6</t>
-  </si>
-  <si>
-    <t>7 5007 41237 81 7</t>
-  </si>
-  <si>
-    <t>4 3501 17467 77 4</t>
-  </si>
-  <si>
-    <t>5 1408 63861 41 5</t>
-  </si>
-  <si>
-    <t>3 4902 00140 35 4</t>
-  </si>
-  <si>
-    <t>2 4217 80207 37 1</t>
-  </si>
-  <si>
-    <t>8 2112 69099 10 1</t>
-  </si>
-  <si>
-    <t>1 3414 14027 32 5</t>
-  </si>
-  <si>
-    <t>4 6615 63334 19 1</t>
-  </si>
-  <si>
-    <t>8 3619 05740 65 7</t>
-  </si>
-  <si>
-    <t>5 1308 82173 73 1</t>
-  </si>
-  <si>
-    <t>1 3120 15453 78 0</t>
-  </si>
-  <si>
-    <t>8 4003 52907 40 3</t>
-  </si>
-  <si>
-    <t>6 6311 05813 46 4</t>
-  </si>
-  <si>
-    <t>0 4948 7996</t>
-  </si>
-  <si>
-    <t>6 2806 29726 89 0</t>
-  </si>
-  <si>
-    <t>5 2313 93852 83 1</t>
-  </si>
-  <si>
-    <t>7 2420 22657 07 7</t>
-  </si>
-  <si>
-    <t>2 1001 75229 65 7</t>
-  </si>
-  <si>
-    <t>5 8114 44251 44 2</t>
-  </si>
-  <si>
-    <t>1 5718 83780 81 4</t>
-  </si>
-  <si>
-    <t>2 8312 21429 05 1</t>
-  </si>
-  <si>
-    <t>7 6709 69794 35 7</t>
-  </si>
-  <si>
-    <t>7 6106 74568 06 2</t>
-  </si>
-  <si>
-    <t>1 3811 47519 34 5</t>
-  </si>
-  <si>
-    <t>2 6705 41174 76 3</t>
-  </si>
-  <si>
-    <t>4 8711 37456 15 4</t>
-  </si>
-  <si>
-    <t>088 172 6796</t>
-  </si>
-  <si>
-    <t>7 2905 55497 95 5</t>
-  </si>
-  <si>
-    <t>5 8714 59482 40 2</t>
-  </si>
-  <si>
-    <t>6 8520 20992 41 0</t>
-  </si>
-  <si>
-    <t>8 2903 13975 99 3</t>
-  </si>
-  <si>
-    <t>8 1709 07863 73 1</t>
-  </si>
-  <si>
-    <t>057 452508</t>
-  </si>
-  <si>
-    <t>6 8616 23314 55 2</t>
-  </si>
-  <si>
-    <t>4 2505 42966 20 5</t>
-  </si>
-  <si>
-    <t>4 7307 95288 92 8</t>
-  </si>
-  <si>
-    <t>5 9518 49972 13 6</t>
-  </si>
-  <si>
-    <t>8 2110 15426 11 9</t>
-  </si>
-  <si>
-    <t>2 1710 24382 28 7</t>
-  </si>
-  <si>
-    <t>091 990 1801</t>
-  </si>
-  <si>
-    <t>1 8409 08735 94 5</t>
-  </si>
-  <si>
-    <t>6 3320 49329 14 4</t>
-  </si>
-  <si>
-    <t>0 5455 7681</t>
-  </si>
-  <si>
-    <t>6 4715 15267 10 1</t>
-  </si>
-  <si>
-    <t>031 667570</t>
-  </si>
-  <si>
-    <t>7 5111 37874 52 2</t>
-  </si>
-  <si>
-    <t>3 9511 98035 20 6</t>
-  </si>
-  <si>
-    <t>4 9404 80019 87 2</t>
-  </si>
-  <si>
-    <t>5 8618 57213 41 0</t>
-  </si>
-  <si>
-    <t>1 5101 00092 81 4</t>
-  </si>
-  <si>
-    <t>1 2120 46324 95 8</t>
-  </si>
-  <si>
     <t>1749900994965</t>
   </si>
   <si>
@@ -1744,13 +1306,295 @@
   </si>
   <si>
     <t>1749900954967</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>6612056640400</t>
+  </si>
+  <si>
+    <t>3261473788326</t>
+  </si>
+  <si>
+    <t>7500741237817</t>
+  </si>
+  <si>
+    <t>4350117467774</t>
+  </si>
+  <si>
+    <t>5140863861415</t>
+  </si>
+  <si>
+    <t>3490200140354</t>
+  </si>
+  <si>
+    <t>2421780207371</t>
+  </si>
+  <si>
+    <t>8211269099101</t>
+  </si>
+  <si>
+    <t>1341414027325</t>
+  </si>
+  <si>
+    <t>4661563334191</t>
+  </si>
+  <si>
+    <t>8361905740657</t>
+  </si>
+  <si>
+    <t>5130882173731</t>
+  </si>
+  <si>
+    <t>1312015453780</t>
+  </si>
+  <si>
+    <t>8400352907403</t>
+  </si>
+  <si>
+    <t>6631105813464</t>
+  </si>
+  <si>
+    <t>6280629726890</t>
+  </si>
+  <si>
+    <t>5231393852831</t>
+  </si>
+  <si>
+    <t>7242022657077</t>
+  </si>
+  <si>
+    <t>2100175229657</t>
+  </si>
+  <si>
+    <t>5811444251442</t>
+  </si>
+  <si>
+    <t>1571883780814</t>
+  </si>
+  <si>
+    <t>2831221429051</t>
+  </si>
+  <si>
+    <t>7670969794357</t>
+  </si>
+  <si>
+    <t>7610674568062</t>
+  </si>
+  <si>
+    <t>1381147519345</t>
+  </si>
+  <si>
+    <t>2670541174763</t>
+  </si>
+  <si>
+    <t>4871137456154</t>
+  </si>
+  <si>
+    <t>7290555497955</t>
+  </si>
+  <si>
+    <t>5871459482402</t>
+  </si>
+  <si>
+    <t>6852020992410</t>
+  </si>
+  <si>
+    <t>8290313975993</t>
+  </si>
+  <si>
+    <t>8170907863731</t>
+  </si>
+  <si>
+    <t>6861623314552</t>
+  </si>
+  <si>
+    <t>4250542966205</t>
+  </si>
+  <si>
+    <t>4730795288928</t>
+  </si>
+  <si>
+    <t>5951849972136</t>
+  </si>
+  <si>
+    <t>8211015426119</t>
+  </si>
+  <si>
+    <t>2171024382287</t>
+  </si>
+  <si>
+    <t>1840908735945</t>
+  </si>
+  <si>
+    <t>6332049329144</t>
+  </si>
+  <si>
+    <t>6471515267101</t>
+  </si>
+  <si>
+    <t>7511137874522</t>
+  </si>
+  <si>
+    <t>3951198035206</t>
+  </si>
+  <si>
+    <t>4940480019872</t>
+  </si>
+  <si>
+    <t>5861857213410</t>
+  </si>
+  <si>
+    <t>1510100092814</t>
+  </si>
+  <si>
+    <t>1212046324958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G8z4K7pQxJ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X3Lq9TgYbW  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5cN1VhZsP  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J7Qx4K8zGp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9TgX3YqWb  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vh5M1ZcNsP  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QxK7G8pJ4z  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TgX9L3qYbW  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1Vh5McZsP  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K7GQxJ8p4z  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X9TgL3qYbW  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1Vh5NcZsP  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QK7GJx84pz  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TgX3L9qYbW  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1Mh5NZcPs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7GQKJx84pz  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X3TgL9qYbW  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1Vh5NZcPs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QKJxG784pz  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1773,13 +1617,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1812,16 +1649,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2041,10 +1876,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2054,7 +1889,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2122,43 +1957,43 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>574</v>
+      <c r="K2" t="s">
+        <v>457</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>23</v>
@@ -2207,20 +2042,20 @@
       <c r="J3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>572</v>
+      <c r="K3" t="s">
+        <v>458</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>23</v>
@@ -2240,49 +2075,49 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" t="s">
+        <v>459</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>23</v>
@@ -2294,7 +2129,7 @@
         <v>25</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T4" s="2" t="b">
         <v>1</v>
@@ -2302,2916 +2137,2976 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>472</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="s">
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K5" t="s">
+        <v>460</v>
+      </c>
+      <c r="L5" t="s">
+        <v>507</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" t="s">
         <v>68</v>
       </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="O5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
+      <c r="P5" t="s">
         <v>70</v>
-      </c>
-      <c r="H5" s="6">
-        <v>3</v>
-      </c>
-      <c r="I5" s="6">
-        <v>7</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1989</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" t="s">
-        <v>75</v>
       </c>
       <c r="Q5" t="s">
         <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
-      </c>
-      <c r="T5" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="T5" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>473</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="K6" t="s">
+        <v>461</v>
+      </c>
+      <c r="L6" t="s">
+        <v>508</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
+      <c r="Q6" t="s">
         <v>80</v>
       </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="R6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
+      <c r="S6" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="6">
-        <v>13</v>
-      </c>
-      <c r="I6" s="6">
-        <v>12</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1998</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>88</v>
-      </c>
-      <c r="R6" t="s">
-        <v>89</v>
-      </c>
-      <c r="S6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T6" t="s">
-        <v>78</v>
+      <c r="T6" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>474</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="6">
-        <v>24</v>
-      </c>
-      <c r="I7" s="6">
-        <v>3</v>
-      </c>
-      <c r="J7" s="6">
-        <v>2000</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>521</v>
+        <v>86</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K7" t="s">
+        <v>462</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" t="s">
-        <v>96</v>
+        <v>509</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Q7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="R7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S7" t="s">
-        <v>101</v>
-      </c>
-      <c r="T7" t="s">
-        <v>78</v>
+        <v>91</v>
+      </c>
+      <c r="T7" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>475</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="6">
-        <v>4</v>
-      </c>
-      <c r="I8" s="6">
-        <v>8</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1991</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>522</v>
+        <v>95</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K8" t="s">
+        <v>463</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" t="s">
-        <v>107</v>
+        <v>510</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="Q8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="R8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s">
-        <v>112</v>
-      </c>
-      <c r="T8" t="s">
-        <v>78</v>
+        <v>100</v>
+      </c>
+      <c r="T8" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>476</v>
+        <v>383</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="6">
-        <v>25</v>
-      </c>
-      <c r="I9" s="6">
-        <v>4</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1980</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>523</v>
+        <v>104</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="K9" t="s">
+        <v>464</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" t="s">
-        <v>118</v>
+        <v>511</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N9" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="Q9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="R9" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="S9" t="s">
-        <v>124</v>
-      </c>
-      <c r="T9" t="s">
-        <v>78</v>
+        <v>110</v>
+      </c>
+      <c r="T9" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>477</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="6">
-        <v>23</v>
-      </c>
-      <c r="I10" s="6">
-        <v>8</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1993</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>524</v>
+        <v>114</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K10" t="s">
+        <v>465</v>
       </c>
       <c r="L10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M10" t="s">
-        <v>130</v>
+        <v>512</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N10" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="P10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s">
-        <v>133</v>
-      </c>
-      <c r="T10" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="T10" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="6">
-        <v>16</v>
-      </c>
-      <c r="I11" s="6">
-        <v>5</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1988</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>525</v>
+        <v>112</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="K11" t="s">
+        <v>466</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
-      </c>
-      <c r="M11" t="s">
-        <v>139</v>
+        <v>513</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="Q11" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="R11" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="S11" t="s">
-        <v>144</v>
-      </c>
-      <c r="T11" t="s">
-        <v>134</v>
+        <v>125</v>
+      </c>
+      <c r="T11" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
-      </c>
-      <c r="H12" s="6">
-        <v>27</v>
-      </c>
-      <c r="I12" s="6">
-        <v>7</v>
-      </c>
-      <c r="J12" s="6">
-        <v>2003</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>526</v>
+        <v>129</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="K12" t="s">
+        <v>467</v>
       </c>
       <c r="L12" t="s">
-        <v>149</v>
-      </c>
-      <c r="M12" t="s">
-        <v>150</v>
+        <v>514</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N12" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="Q12" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="R12" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="S12" t="s">
-        <v>154</v>
-      </c>
-      <c r="T12" t="s">
-        <v>78</v>
+        <v>133</v>
+      </c>
+      <c r="T12" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>480</v>
+        <v>387</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="6">
-        <v>18</v>
-      </c>
-      <c r="I13" s="6">
+        <v>137</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K13" t="s">
+        <v>468</v>
+      </c>
+      <c r="L13" t="s">
+        <v>515</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" t="s">
+        <v>140</v>
+      </c>
+      <c r="T13" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1983</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="L13" t="s">
-        <v>159</v>
-      </c>
-      <c r="M13" t="s">
-        <v>160</v>
-      </c>
-      <c r="N13" t="s">
-        <v>161</v>
-      </c>
-      <c r="O13" t="s">
-        <v>162</v>
-      </c>
-      <c r="P13" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>142</v>
-      </c>
-      <c r="R13" t="s">
-        <v>89</v>
-      </c>
-      <c r="S13" t="s">
-        <v>163</v>
-      </c>
-      <c r="T13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>481</v>
+        <v>388</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="6">
-        <v>28</v>
-      </c>
-      <c r="I14" s="6">
-        <v>2</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1983</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>528</v>
+        <v>144</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="K14" t="s">
+        <v>469</v>
       </c>
       <c r="L14" t="s">
-        <v>168</v>
-      </c>
-      <c r="M14" t="s">
-        <v>169</v>
+        <v>516</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="N14" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="P14" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="Q14" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="R14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S14" t="s">
-        <v>172</v>
-      </c>
-      <c r="T14" t="s">
-        <v>134</v>
+        <v>147</v>
+      </c>
+      <c r="T14" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>482</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>176</v>
-      </c>
-      <c r="H15" s="6">
-        <v>23</v>
-      </c>
-      <c r="I15" s="6">
-        <v>5</v>
-      </c>
-      <c r="J15" s="6">
-        <v>2001</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>529</v>
+        <v>151</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="K15" t="s">
+        <v>470</v>
       </c>
       <c r="L15" t="s">
-        <v>177</v>
-      </c>
-      <c r="M15" t="s">
-        <v>178</v>
+        <v>517</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N15" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="Q15" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="R15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S15" t="s">
-        <v>181</v>
-      </c>
-      <c r="T15" t="s">
-        <v>78</v>
+        <v>154</v>
+      </c>
+      <c r="T15" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>483</v>
+        <v>390</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>184</v>
-      </c>
-      <c r="H16" s="6">
-        <v>19</v>
-      </c>
-      <c r="I16" s="6">
-        <v>11</v>
-      </c>
-      <c r="J16" s="6">
-        <v>2002</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>530</v>
+        <v>157</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="K16" t="s">
+        <v>471</v>
       </c>
       <c r="L16" t="s">
-        <v>185</v>
-      </c>
-      <c r="M16" t="s">
-        <v>186</v>
+        <v>518</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N16" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="Q16" t="s">
         <v>24</v>
       </c>
       <c r="R16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S16" t="s">
-        <v>189</v>
-      </c>
-      <c r="T16" t="s">
-        <v>134</v>
+        <v>160</v>
+      </c>
+      <c r="T16" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>484</v>
+        <v>391</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17" s="6">
-        <v>2</v>
-      </c>
-      <c r="I17" s="6">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1981</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>531</v>
+        <v>164</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="K17" t="s">
+        <v>472</v>
       </c>
       <c r="L17" t="s">
-        <v>194</v>
-      </c>
-      <c r="M17" t="s">
-        <v>195</v>
+        <v>519</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="Q17" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="R17" t="s">
         <v>25</v>
       </c>
       <c r="S17" t="s">
-        <v>199</v>
-      </c>
-      <c r="T17" t="s">
-        <v>78</v>
+        <v>168</v>
+      </c>
+      <c r="T17" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>485</v>
+        <v>392</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>203</v>
-      </c>
-      <c r="H18" s="6">
-        <v>4</v>
-      </c>
-      <c r="I18" s="6">
-        <v>12</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1988</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>532</v>
+        <v>172</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="K18" t="s">
+        <v>473</v>
       </c>
       <c r="L18" t="s">
-        <v>204</v>
-      </c>
-      <c r="M18" t="s">
-        <v>205</v>
+        <v>520</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N18" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="Q18" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="R18" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="S18" t="s">
-        <v>208</v>
-      </c>
-      <c r="T18" t="s">
-        <v>134</v>
+        <v>175</v>
+      </c>
+      <c r="T18" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>486</v>
+        <v>393</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s">
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>212</v>
-      </c>
-      <c r="H19" s="6">
-        <v>21</v>
-      </c>
-      <c r="I19" s="6">
-        <v>9</v>
-      </c>
-      <c r="J19" s="6">
-        <v>2003</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>533</v>
+        <v>179</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="K19" t="s">
+        <v>474</v>
       </c>
       <c r="L19" t="s">
-        <v>213</v>
-      </c>
-      <c r="M19" t="s">
-        <v>534</v>
+        <v>521</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N19" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="Q19" t="s">
         <v>24</v>
       </c>
       <c r="R19" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="S19" t="s">
-        <v>216</v>
-      </c>
-      <c r="T19" t="s">
-        <v>78</v>
+        <v>182</v>
+      </c>
+      <c r="T19" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>487</v>
+        <v>394</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" s="6">
-        <v>10</v>
-      </c>
-      <c r="I20" s="6">
-        <v>5</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1998</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>535</v>
+        <v>156</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
+        <v>475</v>
       </c>
       <c r="L20" t="s">
-        <v>220</v>
-      </c>
-      <c r="M20" t="s">
-        <v>221</v>
+        <v>522</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="N20" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="Q20" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="R20" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="S20" t="s">
-        <v>224</v>
-      </c>
-      <c r="T20" t="s">
-        <v>134</v>
+        <v>188</v>
+      </c>
+      <c r="T20" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>488</v>
+        <v>395</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>228</v>
-      </c>
-      <c r="H21" s="6">
-        <v>3</v>
-      </c>
-      <c r="I21" s="6">
-        <v>3</v>
-      </c>
-      <c r="J21" s="6">
-        <v>2003</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>536</v>
+        <v>192</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" t="s">
+        <v>476</v>
       </c>
       <c r="L21" t="s">
-        <v>229</v>
-      </c>
-      <c r="M21" t="s">
-        <v>230</v>
+        <v>517</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N21" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="P21" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="Q21" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="R21" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s">
-        <v>233</v>
-      </c>
-      <c r="T21" t="s">
-        <v>134</v>
+        <v>195</v>
+      </c>
+      <c r="T21" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>489</v>
+        <v>396</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>236</v>
-      </c>
-      <c r="H22" s="6">
-        <v>18</v>
-      </c>
-      <c r="I22" s="6">
-        <v>4</v>
-      </c>
-      <c r="J22" s="6">
-        <v>2004</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>537</v>
+        <v>198</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" t="s">
+        <v>477</v>
       </c>
       <c r="L22" t="s">
-        <v>237</v>
-      </c>
-      <c r="M22" t="s">
-        <v>238</v>
+        <v>518</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N22" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="O22" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="Q22" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="R22" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="S22" t="s">
-        <v>241</v>
-      </c>
-      <c r="T22" t="s">
-        <v>134</v>
+        <v>201</v>
+      </c>
+      <c r="T22" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>490</v>
+        <v>397</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="D23" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
-        <v>245</v>
-      </c>
-      <c r="H23" s="6">
-        <v>16</v>
-      </c>
-      <c r="I23" s="6">
-        <v>5</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1990</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>538</v>
+        <v>205</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K23" t="s">
+        <v>478</v>
       </c>
       <c r="L23" t="s">
-        <v>246</v>
-      </c>
-      <c r="M23" t="s">
-        <v>247</v>
+        <v>519</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="N23" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="P23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q23" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="R23" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="S23" t="s">
-        <v>250</v>
-      </c>
-      <c r="T23" t="s">
-        <v>78</v>
+        <v>208</v>
+      </c>
+      <c r="T23" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>491</v>
+        <v>398</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="D24" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="E24" t="s">
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>254</v>
-      </c>
-      <c r="H24" s="6">
-        <v>21</v>
-      </c>
-      <c r="I24" s="6">
-        <v>3</v>
-      </c>
-      <c r="J24" s="6">
-        <v>2001</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>539</v>
+        <v>212</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="K24" t="s">
+        <v>479</v>
       </c>
       <c r="L24" t="s">
-        <v>255</v>
-      </c>
-      <c r="M24" t="s">
-        <v>256</v>
+        <v>520</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N24" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="O24" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="Q24" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="R24" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S24" t="s">
-        <v>259</v>
-      </c>
-      <c r="T24" t="s">
-        <v>134</v>
+        <v>215</v>
+      </c>
+      <c r="T24" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>492</v>
+        <v>399</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="G25" t="s">
-        <v>262</v>
-      </c>
-      <c r="H25" s="6">
-        <v>17</v>
-      </c>
-      <c r="I25" s="6">
-        <v>3</v>
-      </c>
-      <c r="J25" s="6">
-        <v>2001</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>540</v>
+        <v>218</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K25" t="s">
+        <v>480</v>
       </c>
       <c r="L25" t="s">
-        <v>263</v>
-      </c>
-      <c r="M25" t="s">
-        <v>264</v>
+        <v>521</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N25" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="P25" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="Q25" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="R25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S25" t="s">
-        <v>267</v>
-      </c>
-      <c r="T25" t="s">
-        <v>78</v>
+        <v>221</v>
+      </c>
+      <c r="T25" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>493</v>
+        <v>400</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D26" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="G26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H26" s="6">
-        <v>20</v>
-      </c>
-      <c r="I26" s="6">
-        <v>7</v>
-      </c>
-      <c r="J26" s="6">
-        <v>1984</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>541</v>
+        <v>225</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K26" t="s">
+        <v>481</v>
       </c>
       <c r="L26" t="s">
-        <v>272</v>
-      </c>
-      <c r="M26" t="s">
-        <v>273</v>
+        <v>522</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="N26" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="P26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q26" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="R26" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="S26" t="s">
-        <v>276</v>
-      </c>
-      <c r="T26" t="s">
-        <v>78</v>
+        <v>228</v>
+      </c>
+      <c r="T26" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>494</v>
+        <v>401</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="D27" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="E27" t="s">
         <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>280</v>
-      </c>
-      <c r="H27" s="6">
-        <v>25</v>
-      </c>
-      <c r="I27" s="6">
-        <v>12</v>
-      </c>
-      <c r="J27" s="6">
-        <v>1984</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>542</v>
+        <v>232</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="K27" t="s">
+        <v>482</v>
       </c>
       <c r="L27" t="s">
-        <v>281</v>
-      </c>
-      <c r="M27" t="s">
-        <v>282</v>
+        <v>517</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N27" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="P27" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="Q27" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="R27" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="S27" t="s">
-        <v>285</v>
-      </c>
-      <c r="T27" t="s">
-        <v>78</v>
+        <v>235</v>
+      </c>
+      <c r="T27" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>495</v>
+        <v>402</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="D28" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
-        <v>289</v>
-      </c>
-      <c r="H28" s="6">
-        <v>10</v>
-      </c>
-      <c r="I28" s="6">
-        <v>4</v>
-      </c>
-      <c r="J28" s="6">
-        <v>1993</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>543</v>
+        <v>239</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K28" t="s">
+        <v>483</v>
       </c>
       <c r="L28" t="s">
-        <v>290</v>
-      </c>
-      <c r="M28" t="s">
-        <v>291</v>
+        <v>518</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N28" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="O28" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="Q28" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="R28" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S28" t="s">
-        <v>294</v>
-      </c>
-      <c r="T28" t="s">
-        <v>134</v>
+        <v>242</v>
+      </c>
+      <c r="T28" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>496</v>
+        <v>403</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="D29" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
-        <v>298</v>
-      </c>
-      <c r="H29" s="6">
-        <v>19</v>
-      </c>
-      <c r="I29" s="6">
-        <v>11</v>
-      </c>
-      <c r="J29" s="6">
-        <v>1995</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>544</v>
+        <v>246</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="K29" t="s">
+        <v>484</v>
       </c>
       <c r="L29" t="s">
-        <v>299</v>
-      </c>
-      <c r="M29" t="s">
-        <v>300</v>
+        <v>519</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="N29" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="O29" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="Q29" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="R29" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S29" t="s">
-        <v>303</v>
-      </c>
-      <c r="T29" t="s">
-        <v>134</v>
+        <v>249</v>
+      </c>
+      <c r="T29" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>497</v>
+        <v>404</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D30" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
-        <v>228</v>
-      </c>
-      <c r="H30" s="6">
-        <v>13</v>
-      </c>
-      <c r="I30" s="6">
-        <v>11</v>
-      </c>
-      <c r="J30" s="6">
-        <v>1982</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>545</v>
+        <v>192</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="K30" t="s">
+        <v>485</v>
       </c>
       <c r="L30" t="s">
-        <v>306</v>
-      </c>
-      <c r="M30" t="s">
-        <v>307</v>
+        <v>520</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N30" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="P30" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="Q30" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="R30" t="s">
         <v>25</v>
       </c>
       <c r="S30" t="s">
-        <v>310</v>
-      </c>
-      <c r="T30" t="s">
-        <v>78</v>
+        <v>254</v>
+      </c>
+      <c r="T30" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>498</v>
+        <v>405</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="D31" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" s="6">
-        <v>4</v>
-      </c>
-      <c r="I31" s="6">
-        <v>8</v>
-      </c>
-      <c r="J31" s="6">
-        <v>1984</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>546</v>
+        <v>151</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="K31" t="s">
+        <v>486</v>
       </c>
       <c r="L31" t="s">
-        <v>314</v>
-      </c>
-      <c r="M31" t="s">
-        <v>547</v>
+        <v>521</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N31" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="O31" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="P31" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q31" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="R31" t="s">
         <v>25</v>
       </c>
       <c r="S31" t="s">
-        <v>317</v>
-      </c>
-      <c r="T31" t="s">
-        <v>134</v>
+        <v>260</v>
+      </c>
+      <c r="T31" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>499</v>
+        <v>406</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="D32" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="E32" t="s">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>165</v>
-      </c>
-      <c r="H32" s="6">
-        <v>22</v>
-      </c>
-      <c r="I32" s="6">
-        <v>5</v>
-      </c>
-      <c r="J32" s="6">
-        <v>1994</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>548</v>
+        <v>142</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="K32" t="s">
+        <v>487</v>
       </c>
       <c r="L32" t="s">
-        <v>321</v>
-      </c>
-      <c r="M32" t="s">
-        <v>322</v>
+        <v>522</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="N32" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="O32" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="P32" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="Q32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="S32" t="s">
-        <v>325</v>
-      </c>
-      <c r="T32" t="s">
-        <v>78</v>
+        <v>266</v>
+      </c>
+      <c r="T32" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>500</v>
+        <v>407</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>327</v>
+        <v>268</v>
       </c>
       <c r="G33" t="s">
-        <v>328</v>
-      </c>
-      <c r="H33" s="6">
-        <v>8</v>
-      </c>
-      <c r="I33" s="6">
-        <v>2</v>
-      </c>
-      <c r="J33" s="6">
-        <v>1999</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>549</v>
+        <v>269</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K33" t="s">
+        <v>488</v>
       </c>
       <c r="L33" t="s">
-        <v>329</v>
-      </c>
-      <c r="M33" t="s">
-        <v>330</v>
+        <v>517</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N33" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="O33" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="P33" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="Q33" t="s">
         <v>24</v>
       </c>
       <c r="R33" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s">
-        <v>333</v>
-      </c>
-      <c r="T33" t="s">
-        <v>134</v>
+        <v>272</v>
+      </c>
+      <c r="T33" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>501</v>
+        <v>408</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="D34" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="G34" t="s">
-        <v>337</v>
-      </c>
-      <c r="H34" s="6">
-        <v>4</v>
-      </c>
-      <c r="I34" s="6">
-        <v>10</v>
-      </c>
-      <c r="J34" s="6">
-        <v>1990</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>550</v>
+        <v>276</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="K34" t="s">
+        <v>489</v>
       </c>
       <c r="L34" t="s">
-        <v>338</v>
-      </c>
-      <c r="M34" t="s">
-        <v>339</v>
+        <v>518</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N34" t="s">
-        <v>340</v>
+        <v>277</v>
       </c>
       <c r="O34" t="s">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="Q34" t="s">
         <v>24</v>
       </c>
       <c r="R34" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="S34" t="s">
-        <v>342</v>
-      </c>
-      <c r="T34" t="s">
-        <v>78</v>
+        <v>279</v>
+      </c>
+      <c r="T34" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>502</v>
+        <v>409</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="G35" t="s">
-        <v>345</v>
-      </c>
-      <c r="H35" s="6">
+        <v>282</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K35" t="s">
+        <v>490</v>
+      </c>
+      <c r="L35" t="s">
+        <v>519</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N35" t="s">
+        <v>283</v>
+      </c>
+      <c r="O35" t="s">
+        <v>284</v>
+      </c>
+      <c r="P35" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>123</v>
+      </c>
+      <c r="R35" t="s">
+        <v>90</v>
+      </c>
+      <c r="S35" t="s">
+        <v>285</v>
+      </c>
+      <c r="T35" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="I35" s="6">
-        <v>2</v>
-      </c>
-      <c r="J35" s="6">
-        <v>2005</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="L35" t="s">
-        <v>346</v>
-      </c>
-      <c r="M35" t="s">
-        <v>347</v>
-      </c>
-      <c r="N35" t="s">
-        <v>348</v>
-      </c>
-      <c r="O35" t="s">
-        <v>349</v>
-      </c>
-      <c r="P35" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>142</v>
-      </c>
-      <c r="R35" t="s">
-        <v>100</v>
-      </c>
-      <c r="S35" t="s">
-        <v>350</v>
-      </c>
-      <c r="T35" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>503</v>
+        <v>410</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" t="s">
         <v>286</v>
-      </c>
-      <c r="D36" t="s">
-        <v>351</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>352</v>
+        <v>287</v>
       </c>
       <c r="G36" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="6">
-        <v>28</v>
-      </c>
-      <c r="I36" s="6">
-        <v>3</v>
-      </c>
-      <c r="J36" s="6">
-        <v>1989</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>552</v>
+        <v>102</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="K36" t="s">
+        <v>491</v>
       </c>
       <c r="L36" t="s">
-        <v>353</v>
-      </c>
-      <c r="M36" t="s">
-        <v>553</v>
+        <v>520</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N36" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="O36" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="P36" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Q36" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="R36" t="s">
         <v>25</v>
       </c>
       <c r="S36" t="s">
-        <v>356</v>
-      </c>
-      <c r="T36" t="s">
-        <v>134</v>
+        <v>290</v>
+      </c>
+      <c r="T36" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>504</v>
+        <v>411</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="D37" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="G37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H37" s="6">
-        <v>8</v>
-      </c>
-      <c r="I37" s="6">
-        <v>5</v>
-      </c>
-      <c r="J37" s="6">
-        <v>1997</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>554</v>
+        <v>112</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K37" t="s">
+        <v>492</v>
       </c>
       <c r="L37" t="s">
-        <v>360</v>
-      </c>
-      <c r="M37" t="s">
-        <v>361</v>
+        <v>521</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N37" t="s">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="O37" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="P37" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="Q37" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="R37" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S37" t="s">
-        <v>364</v>
-      </c>
-      <c r="T37" t="s">
-        <v>134</v>
+        <v>296</v>
+      </c>
+      <c r="T37" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>505</v>
+        <v>412</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>365</v>
+        <v>297</v>
       </c>
       <c r="D38" t="s">
-        <v>366</v>
+        <v>298</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="G38" t="s">
-        <v>368</v>
-      </c>
-      <c r="H38" s="6">
-        <v>11</v>
-      </c>
-      <c r="I38" s="6">
-        <v>4</v>
-      </c>
-      <c r="J38" s="6">
-        <v>1998</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>555</v>
+        <v>300</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K38" t="s">
+        <v>493</v>
       </c>
       <c r="L38" t="s">
-        <v>369</v>
-      </c>
-      <c r="M38" t="s">
-        <v>370</v>
+        <v>522</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="N38" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="O38" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="P38" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="Q38" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="R38" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="S38" t="s">
-        <v>373</v>
-      </c>
-      <c r="T38" t="s">
-        <v>78</v>
+        <v>303</v>
+      </c>
+      <c r="T38" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="D39" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>218</v>
-      </c>
-      <c r="H39" s="6">
-        <v>10</v>
-      </c>
-      <c r="I39" s="6">
+        <v>184</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K39" t="s">
+        <v>494</v>
+      </c>
+      <c r="L39" t="s">
+        <v>517</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N39" t="s">
+        <v>306</v>
+      </c>
+      <c r="O39" t="s">
+        <v>307</v>
+      </c>
+      <c r="P39" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>99</v>
+      </c>
+      <c r="R39" t="s">
+        <v>124</v>
+      </c>
+      <c r="S39" t="s">
+        <v>308</v>
+      </c>
+      <c r="T39" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="J39" s="6">
-        <v>1984</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="L39" t="s">
-        <v>376</v>
-      </c>
-      <c r="M39" t="s">
-        <v>377</v>
-      </c>
-      <c r="N39" t="s">
-        <v>378</v>
-      </c>
-      <c r="O39" t="s">
-        <v>379</v>
-      </c>
-      <c r="P39" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>111</v>
-      </c>
-      <c r="R39" t="s">
-        <v>143</v>
-      </c>
-      <c r="S39" t="s">
-        <v>380</v>
-      </c>
-      <c r="T39" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>507</v>
+        <v>414</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>381</v>
+        <v>309</v>
       </c>
       <c r="D40" t="s">
-        <v>382</v>
+        <v>310</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>383</v>
+        <v>311</v>
       </c>
       <c r="G40" t="s">
-        <v>384</v>
-      </c>
-      <c r="H40" s="6">
-        <v>26</v>
-      </c>
-      <c r="I40" s="6">
-        <v>4</v>
-      </c>
-      <c r="J40" s="6">
-        <v>1983</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>557</v>
+        <v>312</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="K40" t="s">
+        <v>495</v>
       </c>
       <c r="L40" t="s">
-        <v>385</v>
-      </c>
-      <c r="M40" t="s">
-        <v>386</v>
+        <v>518</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N40" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="O40" t="s">
-        <v>388</v>
+        <v>314</v>
       </c>
       <c r="P40" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Q40" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="R40" t="s">
         <v>25</v>
       </c>
       <c r="S40" t="s">
-        <v>389</v>
-      </c>
-      <c r="T40" t="s">
-        <v>78</v>
+        <v>315</v>
+      </c>
+      <c r="T40" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>508</v>
+        <v>415</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>390</v>
+        <v>316</v>
       </c>
       <c r="D41" t="s">
-        <v>391</v>
+        <v>317</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>392</v>
+        <v>318</v>
       </c>
       <c r="G41" t="s">
-        <v>393</v>
-      </c>
-      <c r="H41" s="6">
-        <v>27</v>
-      </c>
-      <c r="I41" s="6">
-        <v>10</v>
-      </c>
-      <c r="J41" s="6">
-        <v>1980</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>558</v>
+        <v>319</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="K41" t="s">
+        <v>496</v>
       </c>
       <c r="L41" t="s">
-        <v>394</v>
-      </c>
-      <c r="M41" t="s">
-        <v>395</v>
+        <v>519</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="N41" t="s">
-        <v>396</v>
+        <v>320</v>
       </c>
       <c r="O41" t="s">
-        <v>397</v>
+        <v>321</v>
       </c>
       <c r="P41" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="Q41" t="s">
         <v>24</v>
       </c>
       <c r="R41" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="S41" t="s">
-        <v>398</v>
-      </c>
-      <c r="T41" t="s">
-        <v>78</v>
+        <v>322</v>
+      </c>
+      <c r="T41" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>509</v>
+        <v>416</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>399</v>
+        <v>323</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
         <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="G42" t="s">
-        <v>400</v>
-      </c>
-      <c r="H42" s="6">
-        <v>7</v>
-      </c>
-      <c r="I42" s="6">
-        <v>5</v>
-      </c>
-      <c r="J42" s="6">
-        <v>2005</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>559</v>
+        <v>324</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="K42" t="s">
+        <v>497</v>
       </c>
       <c r="L42" t="s">
-        <v>401</v>
-      </c>
-      <c r="M42" t="s">
-        <v>560</v>
+        <v>520</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N42" t="s">
-        <v>402</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s">
-        <v>403</v>
+        <v>326</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="Q42" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="R42" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s">
-        <v>404</v>
-      </c>
-      <c r="T42" t="s">
-        <v>78</v>
+        <v>327</v>
+      </c>
+      <c r="T42" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>510</v>
+        <v>417</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>405</v>
+        <v>328</v>
       </c>
       <c r="D43" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>381</v>
+        <v>309</v>
       </c>
       <c r="G43" t="s">
-        <v>406</v>
-      </c>
-      <c r="H43" s="6">
-        <v>8</v>
-      </c>
-      <c r="I43" s="6">
-        <v>2</v>
-      </c>
-      <c r="J43" s="6">
-        <v>1984</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>561</v>
+        <v>329</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="K43" t="s">
+        <v>498</v>
       </c>
       <c r="L43" t="s">
-        <v>407</v>
-      </c>
-      <c r="M43" t="s">
-        <v>408</v>
+        <v>521</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N43" t="s">
-        <v>409</v>
+        <v>330</v>
       </c>
       <c r="O43" t="s">
-        <v>410</v>
+        <v>331</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="Q43" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="R43" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="S43" t="s">
-        <v>411</v>
-      </c>
-      <c r="T43" t="s">
-        <v>78</v>
+        <v>332</v>
+      </c>
+      <c r="T43" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>511</v>
+        <v>418</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>412</v>
+        <v>333</v>
       </c>
       <c r="D44" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="E44" t="s">
         <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>413</v>
+        <v>334</v>
       </c>
       <c r="G44" t="s">
-        <v>165</v>
-      </c>
-      <c r="H44" s="6">
-        <v>11</v>
-      </c>
-      <c r="I44" s="6">
-        <v>3</v>
-      </c>
-      <c r="J44" s="6">
-        <v>1987</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>562</v>
+        <v>142</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K44" t="s">
+        <v>499</v>
       </c>
       <c r="L44" t="s">
-        <v>414</v>
-      </c>
-      <c r="M44" t="s">
-        <v>563</v>
+        <v>522</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="N44" t="s">
-        <v>415</v>
+        <v>335</v>
       </c>
       <c r="O44" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="Q44" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="R44" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S44" t="s">
-        <v>417</v>
-      </c>
-      <c r="T44" t="s">
-        <v>134</v>
+        <v>337</v>
+      </c>
+      <c r="T44" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>512</v>
+        <v>419</v>
       </c>
       <c r="B45" t="s">
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>418</v>
+        <v>338</v>
       </c>
       <c r="E45" t="s">
         <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>419</v>
+        <v>339</v>
       </c>
       <c r="G45" t="s">
-        <v>262</v>
-      </c>
-      <c r="H45" s="6">
-        <v>28</v>
-      </c>
-      <c r="I45" s="6">
-        <v>9</v>
-      </c>
-      <c r="J45" s="6">
-        <v>1980</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>564</v>
+        <v>218</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="K45" t="s">
+        <v>500</v>
       </c>
       <c r="L45" t="s">
-        <v>420</v>
-      </c>
-      <c r="M45" t="s">
-        <v>565</v>
+        <v>517</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N45" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="O45" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="Q45" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="R45" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="S45" t="s">
-        <v>423</v>
-      </c>
-      <c r="T45" t="s">
-        <v>134</v>
+        <v>342</v>
+      </c>
+      <c r="T45" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>513</v>
+        <v>420</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>424</v>
+        <v>343</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F46" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="G46" t="s">
-        <v>425</v>
-      </c>
-      <c r="H46" s="6">
-        <v>24</v>
-      </c>
-      <c r="I46" s="6">
-        <v>2</v>
-      </c>
-      <c r="J46" s="6">
-        <v>2003</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>566</v>
+        <v>344</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="K46" t="s">
+        <v>501</v>
       </c>
       <c r="L46" t="s">
-        <v>426</v>
-      </c>
-      <c r="M46" t="s">
-        <v>427</v>
+        <v>518</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N46" t="s">
-        <v>428</v>
+        <v>345</v>
       </c>
       <c r="O46" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
       <c r="P46" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="Q46" t="s">
         <v>24</v>
       </c>
       <c r="R46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S46" t="s">
-        <v>430</v>
-      </c>
-      <c r="T46" t="s">
-        <v>134</v>
+        <v>347</v>
+      </c>
+      <c r="T46" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>514</v>
+        <v>421</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="D47" t="s">
-        <v>431</v>
+        <v>348</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>432</v>
+        <v>349</v>
       </c>
       <c r="G47" t="s">
-        <v>433</v>
-      </c>
-      <c r="H47" s="6">
-        <v>5</v>
-      </c>
-      <c r="I47" s="6">
-        <v>4</v>
-      </c>
-      <c r="J47" s="6">
-        <v>1991</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>567</v>
+        <v>350</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="K47" t="s">
+        <v>502</v>
       </c>
       <c r="L47" t="s">
-        <v>434</v>
-      </c>
-      <c r="M47" t="s">
-        <v>435</v>
+        <v>519</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="N47" t="s">
-        <v>436</v>
+        <v>351</v>
       </c>
       <c r="O47" t="s">
-        <v>437</v>
+        <v>352</v>
       </c>
       <c r="P47" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q47" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="R47" t="s">
         <v>25</v>
       </c>
       <c r="S47" t="s">
-        <v>438</v>
-      </c>
-      <c r="T47" t="s">
-        <v>78</v>
+        <v>353</v>
+      </c>
+      <c r="T47" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>515</v>
+        <v>422</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
+        <v>354</v>
+      </c>
+      <c r="D48" t="s">
+        <v>355</v>
+      </c>
+      <c r="E48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" t="s">
+        <v>356</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D48" t="s">
-        <v>440</v>
-      </c>
-      <c r="E48" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" t="s">
-        <v>441</v>
-      </c>
-      <c r="H48" s="6">
-        <v>12</v>
-      </c>
-      <c r="I48" s="6">
-        <v>3</v>
-      </c>
-      <c r="J48" s="6">
-        <v>1980</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>568</v>
+      <c r="K48" t="s">
+        <v>503</v>
       </c>
       <c r="L48" t="s">
-        <v>442</v>
-      </c>
-      <c r="M48" t="s">
-        <v>443</v>
+        <v>520</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N48" t="s">
-        <v>444</v>
+        <v>357</v>
       </c>
       <c r="O48" t="s">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="P48" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="Q48" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="R48" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S48" t="s">
-        <v>446</v>
-      </c>
-      <c r="T48" t="s">
-        <v>78</v>
+        <v>359</v>
+      </c>
+      <c r="T48" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>516</v>
+        <v>423</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>447</v>
+        <v>360</v>
       </c>
       <c r="D49" t="s">
-        <v>448</v>
+        <v>361</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" t="s">
-        <v>449</v>
+        <v>362</v>
       </c>
       <c r="G49" t="s">
-        <v>167</v>
-      </c>
-      <c r="H49" s="6">
-        <v>29</v>
-      </c>
-      <c r="I49" s="6">
-        <v>6</v>
-      </c>
-      <c r="J49" s="6">
-        <v>1995</v>
+        <v>144</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>569</v>
+        <v>427</v>
       </c>
       <c r="L49" t="s">
-        <v>450</v>
-      </c>
-      <c r="M49" t="s">
-        <v>451</v>
+        <v>521</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N49" t="s">
-        <v>452</v>
+        <v>363</v>
       </c>
       <c r="O49" t="s">
-        <v>453</v>
+        <v>364</v>
       </c>
       <c r="P49" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q49" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="R49" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="S49" t="s">
-        <v>454</v>
-      </c>
-      <c r="T49" t="s">
-        <v>134</v>
+        <v>365</v>
+      </c>
+      <c r="T49" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>517</v>
+        <v>424</v>
       </c>
       <c r="B50" t="s">
         <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>455</v>
+        <v>366</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
         <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>456</v>
+        <v>367</v>
       </c>
       <c r="G50" t="s">
-        <v>457</v>
-      </c>
-      <c r="H50" s="6">
-        <v>4</v>
-      </c>
-      <c r="I50" s="6">
-        <v>2</v>
-      </c>
-      <c r="J50" s="6">
-        <v>1986</v>
+        <v>368</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>570</v>
+        <v>428</v>
       </c>
       <c r="L50" t="s">
-        <v>458</v>
-      </c>
-      <c r="M50" t="s">
-        <v>459</v>
+        <v>522</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="N50" t="s">
-        <v>460</v>
+        <v>369</v>
       </c>
       <c r="O50" t="s">
-        <v>461</v>
+        <v>370</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="Q50" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="R50" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="S50" t="s">
-        <v>462</v>
-      </c>
-      <c r="T50" t="s">
-        <v>78</v>
+        <v>371</v>
+      </c>
+      <c r="T50" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>518</v>
+        <v>425</v>
       </c>
       <c r="B51" t="s">
         <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>463</v>
+        <v>372</v>
       </c>
       <c r="D51" t="s">
-        <v>464</v>
+        <v>373</v>
       </c>
       <c r="E51" t="s">
         <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
       <c r="G51" t="s">
-        <v>466</v>
-      </c>
-      <c r="H51" s="6">
-        <v>26</v>
-      </c>
-      <c r="I51" s="6">
-        <v>7</v>
-      </c>
-      <c r="J51" s="6">
-        <v>2001</v>
+        <v>375</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>571</v>
+        <v>426</v>
       </c>
       <c r="L51" t="s">
-        <v>467</v>
-      </c>
-      <c r="M51" t="s">
-        <v>468</v>
+        <v>517</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N51" t="s">
-        <v>469</v>
+        <v>376</v>
       </c>
       <c r="O51" t="s">
-        <v>470</v>
+        <v>377</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="Q51" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="R51" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="S51" t="s">
-        <v>471</v>
-      </c>
-      <c r="T51" t="s">
-        <v>78</v>
+        <v>378</v>
+      </c>
+      <c r="T51" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K107" t="str">
+        <f t="shared" ref="K107:K116" si="0">SUBSTITUTE(K52, "-", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K108" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K109" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K110" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K111" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K113" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K114" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K116" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
